--- a/DyeListGenerator.Test/Resources/MasterDyeListTestSave.xlsx
+++ b/DyeListGenerator.Test/Resources/MasterDyeListTestSave.xlsx
@@ -1,7 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
@@ -13,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
   <si>
     <t>DATE HERE</t>
   </si>
@@ -96,59 +95,58 @@
     <t>Mini BFL DK</t>
   </si>
   <si>
-    <t>19th! DOTS</t>
+    <t>19TH!</t>
   </si>
   <si>
     <t>1R</t>
   </si>
   <si>
-    <t>6 of Everything</t>
+    <t>6 OF EVERYTHING</t>
   </si>
   <si>
     <t>5T</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>A LITTLE NIGHT MUSIC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="12"/>
-        <d:rFont val="Helvetica"/>
-      </d:rPr>
-      <d:t xml:space="preserve">10</d:t>
-    </d:r>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolute Magenta </t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>ABSOLUTE MAGENTA</t>
   </si>
   <si>
     <t>O4</t>
   </si>
   <si>
-    <t>after hours</t>
+    <t>AFTER HOURS</t>
   </si>
   <si>
     <t>3B</t>
   </si>
   <si>
-    <t>Alive</t>
+    <t>ALIVE</t>
   </si>
   <si>
     <t>3G</t>
   </si>
   <si>
-    <t>All American Hen</t>
+    <t>ALL AMERICAN HEN</t>
   </si>
   <si>
     <t>3R</t>
   </si>
   <si>
-    <t>Amber Glass</t>
+    <t>AMBER GLASS</t>
   </si>
   <si>
     <t>Z1</t>
@@ -160,7 +158,7 @@
     <t>E3</t>
   </si>
   <si>
-    <t>Amethyst Ink</t>
+    <t>AMETHYST INK</t>
   </si>
   <si>
     <t>H4</t>
@@ -172,52 +170,52 @@
     <t>E1</t>
   </si>
   <si>
-    <t>Angelica</t>
+    <t>ANGELICA</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>angels landing</t>
+    <t>ANGEL’S LANDING</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>anything goes</t>
-  </si>
-  <si>
-    <t>Apathy</t>
+    <t>ANYTHING GOES</t>
+  </si>
+  <si>
+    <t>APATHY</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t xml:space="preserve">Aqua Jet </t>
+    <t>AQUA JET</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>As a Bird</t>
+    <t>AS A BIRD</t>
   </si>
   <si>
     <t>Z3</t>
   </si>
   <si>
-    <t>Atomic Blue</t>
+    <t>ATOMIC BLUE</t>
   </si>
   <si>
     <t>Z4</t>
   </si>
   <si>
-    <t>Awesome, Wow</t>
+    <t>AWESOME! WOW!</t>
   </si>
   <si>
     <t>E0</t>
   </si>
   <si>
-    <t xml:space="preserve">Azure cove </t>
+    <t>AZURE COVE</t>
   </si>
   <si>
     <t>BASALT</t>
@@ -226,19 +224,19 @@
     <t>E4</t>
   </si>
   <si>
-    <t>bedtime</t>
-  </si>
-  <si>
-    <t>Belle Epoque</t>
+    <t>BEDTIME</t>
+  </si>
+  <si>
+    <t>BELLE EPOQUE</t>
   </si>
   <si>
     <t>2R</t>
   </si>
   <si>
-    <t>below horizon</t>
-  </si>
-  <si>
-    <t>Bermuda Teal</t>
+    <t>BELOW HORIZON</t>
+  </si>
+  <si>
+    <t>BERMUDA TEAL</t>
   </si>
   <si>
     <t>Z5</t>
@@ -247,7 +245,7 @@
     <t>BITTER</t>
   </si>
   <si>
-    <t>Bitter Malaise</t>
+    <t>BITTER MALAISE</t>
   </si>
   <si>
     <t>H2</t>
@@ -256,13 +254,13 @@
     <t>BLACK &amp; WHITE</t>
   </si>
   <si>
-    <t>Black Pearl</t>
+    <t>BLACK PEARL</t>
   </si>
   <si>
     <t>Z6</t>
   </si>
   <si>
-    <t>BlancheFleur DOTS</t>
+    <t>BLANCHEFLEUR</t>
   </si>
   <si>
     <t>1T</t>
@@ -271,19 +269,19 @@
     <t>BLUE FISH</t>
   </si>
   <si>
-    <t>blue lagoon</t>
-  </si>
-  <si>
-    <t>Blue Sage</t>
+    <t>BLUE LAGOON</t>
+  </si>
+  <si>
+    <t>BLUE SAGE</t>
   </si>
   <si>
     <t>O1</t>
   </si>
   <si>
-    <t>Blue Sulk</t>
-  </si>
-  <si>
-    <t>Boot Camp</t>
+    <t>BLUE SULK</t>
+  </si>
+  <si>
+    <t>BOOT CAMP</t>
   </si>
   <si>
     <t>BRILLIANT</t>
@@ -295,22 +293,22 @@
     <t>BURR</t>
   </si>
   <si>
-    <t>Cabaret</t>
-  </si>
-  <si>
-    <t>Caldera</t>
+    <t>CABARET</t>
+  </si>
+  <si>
+    <t>CALDERA</t>
   </si>
   <si>
     <t>3N</t>
   </si>
   <si>
-    <t>Callous Pink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Candy love </t>
-  </si>
-  <si>
-    <t>Carmen miranda</t>
+    <t>CALLOUS PINK</t>
+  </si>
+  <si>
+    <t>CANDY LOVE</t>
+  </si>
+  <si>
+    <t>CARMEN MIRANDA</t>
   </si>
   <si>
     <t>O2</t>
@@ -319,49 +317,49 @@
     <t>CAROLINA</t>
   </si>
   <si>
-    <t>carousel</t>
-  </si>
-  <si>
-    <t>Catching Stars</t>
-  </si>
-  <si>
-    <t>cedar creek</t>
+    <t>CAROUSEL</t>
+  </si>
+  <si>
+    <t>CATCHING STARS</t>
+  </si>
+  <si>
+    <t>CEDAR CREEK</t>
   </si>
   <si>
     <t>Z2</t>
   </si>
   <si>
-    <t>Charcoal Prismatic</t>
+    <t>CHARCOAL PRISMATIC</t>
   </si>
   <si>
     <t>5R</t>
   </si>
   <si>
-    <t>Charged Cherry</t>
-  </si>
-  <si>
-    <t>Charli’s Au Lait</t>
-  </si>
-  <si>
-    <t>Chesley</t>
+    <t>CHARGED CHERRY</t>
+  </si>
+  <si>
+    <t>CHARLI AU LAIT</t>
+  </si>
+  <si>
+    <t>CHESLEY</t>
   </si>
   <si>
     <t>CHILI</t>
   </si>
   <si>
-    <t>Chocolate Night</t>
-  </si>
-  <si>
-    <t>Cinnamon Girl</t>
-  </si>
-  <si>
-    <t>cities, tower &amp; bridges</t>
+    <t>CHOCOLATE NIGHT</t>
+  </si>
+  <si>
+    <t>CINNAMON GIRL</t>
+  </si>
+  <si>
+    <t>CITIES TOWERS &amp; BRIDGES</t>
   </si>
   <si>
     <t>5P</t>
   </si>
   <si>
-    <t>Cloud To ground</t>
+    <t>CLOUD TO GROUND</t>
   </si>
   <si>
     <t>5Y</t>
@@ -382,13 +380,13 @@
     <t>CRISP</t>
   </si>
   <si>
-    <t>Crying Dove</t>
+    <t>CRYING DOVE</t>
   </si>
   <si>
     <t>CRYSTAL STORM</t>
   </si>
   <si>
-    <t>Damp Pillow</t>
+    <t>DAMP PILLOW</t>
   </si>
   <si>
     <t>DARK CURRENT</t>
@@ -397,22 +395,22 @@
     <t>DAYLILLY</t>
   </si>
   <si>
-    <t>Deep Regret</t>
-  </si>
-  <si>
-    <t>deep seaflower</t>
-  </si>
-  <si>
-    <t>Desert city wattage</t>
+    <t>DEEP REGRET</t>
+  </si>
+  <si>
+    <t>DEEP SEAFLOWER</t>
+  </si>
+  <si>
+    <t>DESERT CITY WATTAGE</t>
   </si>
   <si>
     <t>3Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Desert oasis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devils garden </t>
+    <t>DESERT OASIS</t>
+  </si>
+  <si>
+    <t>DEVIL’S GARDEN</t>
   </si>
   <si>
     <t>F3</t>
@@ -421,25 +419,25 @@
     <t>DIVE</t>
   </si>
   <si>
-    <t>divine</t>
-  </si>
-  <si>
-    <t>Do Re Me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dream on </t>
-  </si>
-  <si>
-    <t>dreamgirls</t>
-  </si>
-  <si>
-    <t>Dune</t>
-  </si>
-  <si>
-    <t>dusk to dawn</t>
-  </si>
-  <si>
-    <t>eaten the plums</t>
+    <t>DIVINE</t>
+  </si>
+  <si>
+    <t>DO RE ME</t>
+  </si>
+  <si>
+    <t>DREAM ON!</t>
+  </si>
+  <si>
+    <t>DREAMGIRLS</t>
+  </si>
+  <si>
+    <t>DUNE</t>
+  </si>
+  <si>
+    <t>DUSK TO DAWN</t>
+  </si>
+  <si>
+    <t>EATEN THE PLUMS</t>
   </si>
   <si>
     <t>3P</t>
@@ -451,16 +449,16 @@
     <t xml:space="preserve">ELECTRIC MAUVE </t>
   </si>
   <si>
-    <t>Element 79</t>
-  </si>
-  <si>
-    <t>Eliza</t>
+    <t>ELEMENT 79</t>
+  </si>
+  <si>
+    <t>ELIZA</t>
   </si>
   <si>
     <t>ELYSIAN</t>
   </si>
   <si>
-    <t>Emerald Darkness</t>
+    <t>EMERALD DARKNESS</t>
   </si>
   <si>
     <t>H5</t>
@@ -469,46 +467,46 @@
     <t xml:space="preserve">EVENING FLAME </t>
   </si>
   <si>
-    <t xml:space="preserve">Fable  DOTS</t>
+    <t>FABLE</t>
   </si>
   <si>
     <t>1G</t>
   </si>
   <si>
-    <t>fancy</t>
-  </si>
-  <si>
-    <t>Fatal Duel</t>
-  </si>
-  <si>
-    <t>Federal Bank</t>
-  </si>
-  <si>
-    <t>Fern Slipper</t>
-  </si>
-  <si>
-    <t>Fierce Scarlet</t>
-  </si>
-  <si>
-    <t>flower drum song</t>
-  </si>
-  <si>
-    <t>Forget Me</t>
+    <t>FANCY</t>
+  </si>
+  <si>
+    <t>FATAL DUEL</t>
+  </si>
+  <si>
+    <t>FEDERAL BANK</t>
+  </si>
+  <si>
+    <t>FERN SLIPPER</t>
+  </si>
+  <si>
+    <t>FIERCE SCARLET</t>
+  </si>
+  <si>
+    <t>FLOWER DRUM SONG</t>
+  </si>
+  <si>
+    <t>FORGET ME</t>
   </si>
   <si>
     <t>FORTUNE</t>
   </si>
   <si>
-    <t>Fortune Teller</t>
+    <t>FORTUNE TELLER</t>
   </si>
   <si>
     <t>GALAXY</t>
   </si>
   <si>
-    <t xml:space="preserve">Get down greeny </t>
-  </si>
-  <si>
-    <t>GG Laurel</t>
+    <t>GET DOWN GREENY</t>
+  </si>
+  <si>
+    <t>GG LAUREL</t>
   </si>
   <si>
     <t>5G</t>
@@ -520,70 +518,70 @@
     <t>GILT</t>
   </si>
   <si>
-    <t xml:space="preserve">Goblin Valley </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Experience </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold mine </t>
-  </si>
-  <si>
-    <t>good luck jade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green Lantern </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grey Tabby </t>
+    <t>GOBLIN VALLEY</t>
+  </si>
+  <si>
+    <t>GOLD EXPERIENCE</t>
+  </si>
+  <si>
+    <t>GOLD MINE</t>
+  </si>
+  <si>
+    <t>GOOD LUCK JADE</t>
+  </si>
+  <si>
+    <t>GREEN LANTERN</t>
+  </si>
+  <si>
+    <t>GREY TABBY</t>
   </si>
   <si>
     <t>GROW</t>
   </si>
   <si>
-    <t>Guthrie Peak</t>
-  </si>
-  <si>
-    <t>Haywire</t>
-  </si>
-  <si>
-    <t>Hear it hawaii</t>
+    <t>GUTHRIE PEAK</t>
+  </si>
+  <si>
+    <t>HAYWIRE</t>
+  </si>
+  <si>
+    <t>HEAR IT HAWAII</t>
   </si>
   <si>
     <t>HEAVENLY</t>
   </si>
   <si>
-    <t>Hello Dolly!</t>
-  </si>
-  <si>
-    <t>her beacon hand</t>
-  </si>
-  <si>
-    <t>Her Charisma</t>
+    <t>HELLO DOLLY!</t>
+  </si>
+  <si>
+    <t>HER BEACON HAND</t>
+  </si>
+  <si>
+    <t>HER CHARISMA</t>
   </si>
   <si>
     <t>HERBAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Hey sunshine </t>
+    <t>HEY SUNSHINE!</t>
   </si>
   <si>
     <t>HOLLY</t>
   </si>
   <si>
-    <t xml:space="preserve">Hot air balloon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot pants </t>
-  </si>
-  <si>
-    <t>Humdrum</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Icy Reception</t>
+    <t>HOT AIR BALLOON</t>
+  </si>
+  <si>
+    <t>HOT PANTS</t>
+  </si>
+  <si>
+    <t>HUMDRUM</t>
+  </si>
+  <si>
+    <t>ICELAND</t>
+  </si>
+  <si>
+    <t>ICY RECEPTION</t>
   </si>
   <si>
     <t>INDIGO</t>
@@ -592,160 +590,160 @@
     <t>ISLAND</t>
   </si>
   <si>
-    <t>It’s A sparkler</t>
-  </si>
-  <si>
-    <t>Ivy Snowbell DOTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jay feather </t>
+    <t>IT’S A SPARKLER</t>
+  </si>
+  <si>
+    <t>IVY SNOWBELL</t>
+  </si>
+  <si>
+    <t>JAY FEATHER</t>
   </si>
   <si>
     <t>JEANS</t>
   </si>
   <si>
-    <t>Jessamyn</t>
+    <t>JESSAMYN</t>
   </si>
   <si>
     <t>3T</t>
   </si>
   <si>
-    <t>Jocelyn</t>
-  </si>
-  <si>
-    <t>Joshua tree</t>
-  </si>
-  <si>
-    <t>JuliEtte's Blush</t>
-  </si>
-  <si>
-    <t>just to say</t>
-  </si>
-  <si>
-    <t>K Chameleon</t>
-  </si>
-  <si>
-    <t>kiss me kate</t>
-  </si>
-  <si>
-    <t>Kyoto sunset</t>
-  </si>
-  <si>
-    <t>La luz</t>
-  </si>
-  <si>
-    <t>Lafayette</t>
-  </si>
-  <si>
-    <t>Lavender Bloom</t>
-  </si>
-  <si>
-    <t>Lay a Rose</t>
-  </si>
-  <si>
-    <t>Leaf, seed, bean</t>
-  </si>
-  <si>
-    <t>leprechaun ballet</t>
-  </si>
-  <si>
-    <t>liberation</t>
-  </si>
-  <si>
-    <t>life of the gods</t>
-  </si>
-  <si>
-    <t>lipstick lava</t>
-  </si>
-  <si>
-    <t>little green men</t>
+    <t>JOCELYN</t>
+  </si>
+  <si>
+    <t>JOSHUA TREE</t>
+  </si>
+  <si>
+    <t>JULIETTE’S BLUSH</t>
+  </si>
+  <si>
+    <t>JUST TO SAY</t>
+  </si>
+  <si>
+    <t>K. CHAMELEON</t>
+  </si>
+  <si>
+    <t>KISS ME KATE</t>
+  </si>
+  <si>
+    <t>KYOTO SUNSET</t>
+  </si>
+  <si>
+    <t>LA LUZ</t>
+  </si>
+  <si>
+    <t>LAFAYETTE</t>
+  </si>
+  <si>
+    <t>LAVENDER BLOOM</t>
+  </si>
+  <si>
+    <t>LAY A ROSE</t>
+  </si>
+  <si>
+    <t>LEAF SEED BEAN</t>
+  </si>
+  <si>
+    <t>LEPRECHAUN BALLET</t>
+  </si>
+  <si>
+    <t>LIBERATION</t>
+  </si>
+  <si>
+    <t>LIFE OF THE GODS</t>
+  </si>
+  <si>
+    <t>LIPSTICK LAVA</t>
+  </si>
+  <si>
+    <t>LITTLE GREEN MEN</t>
   </si>
   <si>
     <t>O3</t>
   </si>
   <si>
-    <t>Loose Gems</t>
-  </si>
-  <si>
-    <t>Lost in Plum</t>
+    <t>LOOSE GEMS</t>
+  </si>
+  <si>
+    <t>LOST IN PLUM</t>
   </si>
   <si>
     <t>O5</t>
   </si>
   <si>
-    <t>Magic Orchid</t>
-  </si>
-  <si>
-    <t>Malibu Sail</t>
-  </si>
-  <si>
-    <t>medieval</t>
-  </si>
-  <si>
-    <t>Melon Bomb</t>
-  </si>
-  <si>
-    <t>mercado lights</t>
-  </si>
-  <si>
-    <t>Mermaid Shoes</t>
-  </si>
-  <si>
-    <t>Mesa</t>
-  </si>
-  <si>
-    <t>Miami Red</t>
-  </si>
-  <si>
-    <t>Mild Tedium</t>
+    <t>MAGIC ORCHID</t>
+  </si>
+  <si>
+    <t>MALIBU SAIL</t>
+  </si>
+  <si>
+    <t>MEDIEVAL</t>
+  </si>
+  <si>
+    <t>MELON BOMB</t>
+  </si>
+  <si>
+    <t>MERCADO LIGHTS</t>
+  </si>
+  <si>
+    <t>MERMAID SHOES</t>
+  </si>
+  <si>
+    <t>MESA</t>
+  </si>
+  <si>
+    <t>MIAMI RED</t>
+  </si>
+  <si>
+    <t>MILD TEDIUM</t>
   </si>
   <si>
     <t>MILKY SPITE</t>
   </si>
   <si>
-    <t>mist of nyx</t>
+    <t>MIST OF NYX</t>
   </si>
   <si>
     <t>5B</t>
   </si>
   <si>
-    <t>Moccasin</t>
-  </si>
-  <si>
-    <t>Mod squad</t>
+    <t>MOCCASIN</t>
+  </si>
+  <si>
+    <t>MOD SQUAD</t>
   </si>
   <si>
     <t>MORNING GLORY</t>
   </si>
   <si>
-    <t>my fair lady</t>
-  </si>
-  <si>
-    <t>Naked Shame</t>
-  </si>
-  <si>
-    <t>Navy Zeal</t>
+    <t>MY FAIR LADY</t>
+  </si>
+  <si>
+    <t>NAKED SHAME</t>
+  </si>
+  <si>
+    <t>NAVY ZEAL</t>
   </si>
   <si>
     <t>NEBULA</t>
   </si>
   <si>
-    <t>Nighthawks</t>
-  </si>
-  <si>
-    <t>no limit</t>
-  </si>
-  <si>
-    <t>november muse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old pueblo </t>
-  </si>
-  <si>
-    <t>Old Vine</t>
-  </si>
-  <si>
-    <t>Out Beyond</t>
+    <t>NIGHTHAWKS</t>
+  </si>
+  <si>
+    <t>NO LIMIT</t>
+  </si>
+  <si>
+    <t>NOVEMBER MUSE</t>
+  </si>
+  <si>
+    <t>OLD PUEBLO</t>
+  </si>
+  <si>
+    <t>OLD VINE</t>
+  </si>
+  <si>
+    <t>OUT BEYOND</t>
   </si>
   <si>
     <t>4R</t>
@@ -754,28 +752,28 @@
     <t>PASSION</t>
   </si>
   <si>
-    <t>Peaceful Transition</t>
-  </si>
-  <si>
-    <t>Peacock Shadow</t>
-  </si>
-  <si>
-    <t>penchant</t>
-  </si>
-  <si>
-    <t>petal shower</t>
-  </si>
-  <si>
-    <t>petrified forest</t>
-  </si>
-  <si>
-    <t>Pickle Ball</t>
-  </si>
-  <si>
-    <t>pink bean</t>
-  </si>
-  <si>
-    <t>Pinky</t>
+    <t>PEACEFUL TRANSITION</t>
+  </si>
+  <si>
+    <t>PEACOCK SHADOW</t>
+  </si>
+  <si>
+    <t>PENCHANT</t>
+  </si>
+  <si>
+    <t>PETAL SHOWER</t>
+  </si>
+  <si>
+    <t>PETRIFIED FOREST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PICKLE BALL </t>
+  </si>
+  <si>
+    <t>PINK BEAN</t>
+  </si>
+  <si>
+    <t>PINKY</t>
   </si>
   <si>
     <t>PINOT</t>
@@ -784,172 +782,172 @@
     <t>PLENTY</t>
   </si>
   <si>
-    <t>Poma-Grenade</t>
+    <t>POMAGRENADE</t>
   </si>
   <si>
     <t>POPPY</t>
   </si>
   <si>
-    <t>Power Plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prickly pear </t>
-  </si>
-  <si>
-    <t>Prince William</t>
-  </si>
-  <si>
-    <t>punky fuchsia</t>
-  </si>
-  <si>
-    <t>Purple Rain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queen's lake </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabbit ears </t>
+    <t>POWER PLANT</t>
+  </si>
+  <si>
+    <t>PRICKLY PEAR</t>
+  </si>
+  <si>
+    <t>PRINCE WILLIAM</t>
+  </si>
+  <si>
+    <t>PUNKY FUSCHIA</t>
+  </si>
+  <si>
+    <t>PURPLE RAIN</t>
+  </si>
+  <si>
+    <t>QUEEN’S LAKE</t>
+  </si>
+  <si>
+    <t>RABBIT EARS</t>
   </si>
   <si>
     <t>RAIN CLOUD</t>
   </si>
   <si>
-    <t>Rain on Me</t>
-  </si>
-  <si>
-    <t>Raspberry Blaze</t>
-  </si>
-  <si>
-    <t>Red Rush</t>
-  </si>
-  <si>
-    <t>Regency</t>
-  </si>
-  <si>
-    <t>relish the vote!</t>
+    <t>RAIN ON ME</t>
+  </si>
+  <si>
+    <t>RASPBERRY BLAZE</t>
+  </si>
+  <si>
+    <t>RED RUSH</t>
+  </si>
+  <si>
+    <t>REGENCY</t>
+  </si>
+  <si>
+    <t>RELISH THE VOTE!</t>
   </si>
   <si>
     <t>RETRIEVER</t>
   </si>
   <si>
-    <t>Reynolds</t>
-  </si>
-  <si>
-    <t>ring the blossom bell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rio verde </t>
-  </si>
-  <si>
-    <t>riot girls</t>
-  </si>
-  <si>
-    <t>Rochambeau</t>
-  </si>
-  <si>
-    <t>Romeo Blue</t>
-  </si>
-  <si>
-    <t>Rosalita</t>
-  </si>
-  <si>
-    <t>Rose Anguish</t>
+    <t>REYNOLDS</t>
+  </si>
+  <si>
+    <t>RING THE BLOSSOM BELL</t>
+  </si>
+  <si>
+    <t>RIO VERDE</t>
+  </si>
+  <si>
+    <t>RIOT GIRLS</t>
+  </si>
+  <si>
+    <t>ROCHAMBEAU</t>
+  </si>
+  <si>
+    <t>ROMEO BLUE</t>
+  </si>
+  <si>
+    <t>ROSALITA</t>
+  </si>
+  <si>
+    <t>ROSE ANGUISH</t>
   </si>
   <si>
     <t>ROSY</t>
   </si>
   <si>
-    <t>route 66</t>
+    <t>ROUTE 66</t>
   </si>
   <si>
     <t>SANGRIA</t>
   </si>
   <si>
-    <t>Scorched Lime</t>
-  </si>
-  <si>
-    <t>secret garden</t>
-  </si>
-  <si>
-    <t>Shadow Box</t>
-  </si>
-  <si>
-    <t>she walks in beauty</t>
-  </si>
-  <si>
-    <t>Shiny Moss</t>
-  </si>
-  <si>
-    <t>Shuyler Lake</t>
+    <t>SCORCHED LIME</t>
+  </si>
+  <si>
+    <t>SECRET GARDEN</t>
+  </si>
+  <si>
+    <t>SHADOW BOX</t>
+  </si>
+  <si>
+    <t>SHE WALKS IN BEAUTY</t>
+  </si>
+  <si>
+    <t>SHINY MOSS</t>
+  </si>
+  <si>
+    <t>SHUYLER LAKE</t>
   </si>
   <si>
     <t>SHY</t>
   </si>
   <si>
-    <t>simone and susan</t>
-  </si>
-  <si>
-    <t>singing in the rain</t>
-  </si>
-  <si>
-    <t>Skipping Stone</t>
-  </si>
-  <si>
-    <t>Skyrocket</t>
+    <t>SIMONE &amp; SUSAN</t>
+  </si>
+  <si>
+    <t>SINGING IN THE RAIN</t>
+  </si>
+  <si>
+    <t>SKIPPING STONE</t>
+  </si>
+  <si>
+    <t>SKYROCKET</t>
   </si>
   <si>
     <t>4B</t>
   </si>
   <si>
-    <t xml:space="preserve">Slammin lemon </t>
+    <t>SLAMMIN LEMON</t>
   </si>
   <si>
     <t>SLIPPERY TRAIL</t>
   </si>
   <si>
-    <t>solar glitter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonoran sky </t>
-  </si>
-  <si>
-    <t>south pacific</t>
-  </si>
-  <si>
-    <t>spring tickle</t>
-  </si>
-  <si>
-    <t>Sprout</t>
-  </si>
-  <si>
-    <t>Starless Sky</t>
-  </si>
-  <si>
-    <t>still i rise</t>
+    <t>SOLAR GLITTER</t>
+  </si>
+  <si>
+    <t>SONORAN SKY</t>
+  </si>
+  <si>
+    <t>SOUTH PACIFIC</t>
+  </si>
+  <si>
+    <t>SPRING TICKLE</t>
+  </si>
+  <si>
+    <t>SPROUT</t>
+  </si>
+  <si>
+    <t>STARLESS SKY</t>
+  </si>
+  <si>
+    <t>STILL I RISE</t>
   </si>
   <si>
     <t>1P</t>
   </si>
   <si>
-    <t>Still Spruce</t>
-  </si>
-  <si>
-    <t>strange harvest</t>
-  </si>
-  <si>
-    <t>Straw Into Gold</t>
-  </si>
-  <si>
-    <t>Strikes Twice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String &amp; Key  DOTS</t>
+    <t>STILL SPRUCE</t>
+  </si>
+  <si>
+    <t>STRANGE HARVEST</t>
+  </si>
+  <si>
+    <t>STRAW INTO GOLD</t>
+  </si>
+  <si>
+    <t>STRIKES TWICE</t>
+  </si>
+  <si>
+    <t>STRING &amp; KEY</t>
   </si>
   <si>
     <t>1Y</t>
   </si>
   <si>
-    <t>Sundown Orchid</t>
+    <t>SUNDOWN ORCHID</t>
   </si>
   <si>
     <t>SURF</t>
@@ -964,10 +962,10 @@
     <t>TEA PARTY</t>
   </si>
   <si>
-    <t>Tex mex</t>
-  </si>
-  <si>
-    <t>the king</t>
+    <t>TEX MEX</t>
+  </si>
+  <si>
+    <t>THE KING</t>
   </si>
   <si>
     <t>TIDAL</t>
@@ -976,52 +974,52 @@
     <t>TIDEWATER</t>
   </si>
   <si>
-    <t>tiffany box</t>
-  </si>
-  <si>
-    <t>Time Away</t>
-  </si>
-  <si>
-    <t>Tokyo Cream</t>
-  </si>
-  <si>
-    <t>Torchwood</t>
+    <t>TIFFANY BOX</t>
+  </si>
+  <si>
+    <t>TIME AWAY</t>
+  </si>
+  <si>
+    <t>TOKYO CREAM</t>
+  </si>
+  <si>
+    <t>TORCHWOOD</t>
   </si>
   <si>
     <t>TRANQUIL</t>
   </si>
   <si>
-    <t>true to life</t>
-  </si>
-  <si>
-    <t>Tucson</t>
-  </si>
-  <si>
-    <t>Tumbleweed</t>
-  </si>
-  <si>
-    <t>Tussie Mussie</t>
-  </si>
-  <si>
-    <t>Unimaginable</t>
-  </si>
-  <si>
-    <t>universe is Yours</t>
+    <t>TRUE TO LIFE</t>
+  </si>
+  <si>
+    <t>TUCSON</t>
+  </si>
+  <si>
+    <t>TUMBLEWEED</t>
+  </si>
+  <si>
+    <t>TUSSIE MUSSIE</t>
+  </si>
+  <si>
+    <t>UNIMAGINABLE</t>
+  </si>
+  <si>
+    <t>UNIVERSE IS YOURS</t>
   </si>
   <si>
     <t>4P</t>
   </si>
   <si>
-    <t>uptown electric</t>
-  </si>
-  <si>
-    <t>Urban fossil</t>
-  </si>
-  <si>
-    <t>Vague UNease</t>
-  </si>
-  <si>
-    <t>valentine</t>
+    <t>UPTOWN ELECTRIC</t>
+  </si>
+  <si>
+    <t>URBAN FOSSIL</t>
+  </si>
+  <si>
+    <t>VAGUE UNEASE</t>
+  </si>
+  <si>
+    <t>VALENTINE</t>
   </si>
   <si>
     <t>VELVET PORT</t>
@@ -1030,34 +1028,34 @@
     <t>VICTORIA</t>
   </si>
   <si>
-    <t>violet’s blueberry</t>
-  </si>
-  <si>
-    <t>visual purple</t>
+    <t>VIOLET’S BLUEBERRY</t>
+  </si>
+  <si>
+    <t>VISUAL PURPLE</t>
   </si>
   <si>
     <t>VIVID</t>
   </si>
   <si>
-    <t>watch my rising</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Way cool cristal </t>
-  </si>
-  <si>
-    <t>Whetstone</t>
-  </si>
-  <si>
-    <t>whip &amp; chill</t>
-  </si>
-  <si>
-    <t>whisper DOTS</t>
+    <t>WATCH MY RISING</t>
+  </si>
+  <si>
+    <t>WAY COOL CRISTAL</t>
+  </si>
+  <si>
+    <t>WHETSTONE</t>
+  </si>
+  <si>
+    <t>WHIP &amp; CHILL</t>
+  </si>
+  <si>
+    <t>WHISPER</t>
   </si>
   <si>
     <t>1B</t>
   </si>
   <si>
-    <t>Wicked Royal</t>
+    <t>WICKED ROYAL</t>
   </si>
   <si>
     <t>WILDERNESS</t>
@@ -1082,14 +1080,9 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
@@ -1136,12 +1129,6 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -1159,7 +1146,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1217,6 +1204,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1445,257 +1438,260 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1">
+    <xf numFmtId="0" fontId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="6">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="7">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="9">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="4">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="1">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="8">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="1">
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="11">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="9">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="14">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="12">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="14">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="4">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="3">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="9">
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="9">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="5">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="10">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="11">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="12">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="8">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="3">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="8">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="9">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="11">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="14">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="12">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="14">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="11">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="12">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" borderId="9">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="9">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="10">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" borderId="6">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="7">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="9">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="11">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="12">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="10">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="6">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1718,6 +1714,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff515151"/>
       <rgbColor rgb="ffffdd37"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffd5d5d5"/>
       <rgbColor rgb="ff75d5ff"/>
       <rgbColor rgb="ffeaeaea"/>
@@ -1741,10 +1738,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -1773,14 +1770,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -1938,14 +1935,15 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -1960,7 +1958,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1975,25 +1973,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2241,14 +2233,20 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -2537,7 +2535,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2564,7 +2562,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2817,20 +2815,18 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AC277"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.73896" defaultRowHeight="16.3" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.66667" defaultRowHeight="16.3" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="22.1719" customWidth="1" style="1"/>
-    <col min="2" max="3" width="6.97656" customWidth="1" style="1"/>
-    <col min="4" max="5" width="15.8281" customWidth="1" style="1"/>
-    <col min="6" max="6" width="16.3125" customWidth="1" style="1"/>
-    <col min="7" max="7" width="14.4609" customWidth="1" style="1"/>
-    <col min="8" max="9" width="12.3203" customWidth="1" style="1"/>
+    <col min="2" max="3" width="7" customWidth="1" style="1"/>
+    <col min="4" max="5" width="15.8516" customWidth="1" style="1"/>
+    <col min="6" max="6" width="16.3516" customWidth="1" style="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1" style="1"/>
+    <col min="8" max="9" width="12.3516" customWidth="1" style="1"/>
     <col min="10" max="29" width="18" customWidth="1" style="1"/>
-    <col min="30" max="256" width="9.75781" customWidth="1" style="1"/>
+    <col min="30" max="256" width="9.67188" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="43" customHeight="1">
@@ -2969,7 +2965,9 @@
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="F3" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
@@ -2996,17 +2994,17 @@
     </row>
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="18">
         <f>SUM(D4:AC4)</f>
         <v>0</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -3020,7 +3018,9 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
@@ -3036,10 +3036,10 @@
     </row>
     <row r="5" ht="27" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="22">
         <f>SUM(D5:AC5)</f>
@@ -3074,10 +3074,10 @@
     </row>
     <row r="6" ht="27" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="12">
         <f>SUM(D6:AC6)</f>
@@ -3112,10 +3112,10 @@
     </row>
     <row r="7" ht="27" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="15">
         <f>SUM(D7:AC7)</f>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="8" ht="27" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="12">
         <f>SUM(D8:J8)</f>
@@ -3188,10 +3188,10 @@
     </row>
     <row r="9" ht="30.05" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" s="22">
         <f>SUM(D9:AC9)</f>
@@ -3226,10 +3226,10 @@
     </row>
     <row r="10" ht="27" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="12">
         <f>SUM(D10:AC10)</f>
@@ -3264,10 +3264,10 @@
     </row>
     <row r="11" ht="27" customHeight="1">
       <c r="A11" s="30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="15">
         <f>SUM(D11:AC11)</f>
@@ -3302,10 +3302,10 @@
     </row>
     <row r="12" ht="27" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="12">
         <f>SUM(D12:AC12)</f>
@@ -3340,10 +3340,10 @@
     </row>
     <row r="13" ht="27" customHeight="1">
       <c r="A13" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="15">
         <f>SUM(D13:AC13)</f>
@@ -3378,10 +3378,10 @@
     </row>
     <row r="14" ht="27" customHeight="1">
       <c r="A14" s="32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="12">
         <f>SUM(D14:AC14)</f>
@@ -3416,10 +3416,10 @@
     </row>
     <row r="15" ht="27" customHeight="1">
       <c r="A15" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" s="22">
         <f>SUM(D15:AC15)</f>
@@ -3454,10 +3454,10 @@
     </row>
     <row r="16" ht="30.05" customHeight="1">
       <c r="A16" s="30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" s="18">
         <f>SUM(D16:AC16)</f>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="17" ht="27" customHeight="1">
       <c r="A17" s="30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" s="15">
         <f>SUM(D17:AC17)</f>
@@ -3530,10 +3530,10 @@
     </row>
     <row r="18" ht="27" customHeight="1">
       <c r="A18" s="26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C18" s="12">
         <f>SUM(D18:AC18)</f>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="19" ht="27" customHeight="1">
       <c r="A19" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" s="22">
         <f>SUM(D19:AC19)</f>
@@ -3606,10 +3606,10 @@
     </row>
     <row r="20" ht="27" customHeight="1">
       <c r="A20" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C20" s="12">
         <f>SUM(D20:AC20)</f>
@@ -3644,10 +3644,10 @@
     </row>
     <row r="21" ht="34.95" customHeight="1">
       <c r="A21" s="26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" s="22">
         <f>SUM(D21:AC21)</f>
@@ -3682,10 +3682,10 @@
     </row>
     <row r="22" ht="27" customHeight="1">
       <c r="A22" s="29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C22" s="12">
         <f>SUM(D22:AC22)</f>
@@ -3720,10 +3720,10 @@
     </row>
     <row r="23" ht="27" customHeight="1">
       <c r="A23" s="46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23" s="15">
         <f>SUM(D23:AC23)</f>
@@ -3758,10 +3758,10 @@
     </row>
     <row r="24" ht="27" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24" s="12">
         <f>SUM(D24:J24)</f>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="25" ht="27" customHeight="1">
       <c r="A25" s="25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="15">
         <f>SUM(D25:AC25)</f>
@@ -3834,10 +3834,10 @@
     </row>
     <row r="26" ht="27" customHeight="1">
       <c r="A26" s="26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" s="18">
         <f>SUM(D26:AC26)</f>
@@ -3872,10 +3872,10 @@
     </row>
     <row r="27" ht="27" customHeight="1">
       <c r="A27" s="29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="15">
         <f>SUM(D27:AC27)</f>
@@ -3910,10 +3910,10 @@
     </row>
     <row r="28" ht="27" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C28" s="12">
         <f>SUM(D28:AC28)</f>
@@ -3948,10 +3948,10 @@
     </row>
     <row r="29" ht="27" customHeight="1">
       <c r="A29" s="29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="15">
         <f>SUM(D29:AC29)</f>
@@ -3986,10 +3986,10 @@
     </row>
     <row r="30" ht="30.05" customHeight="1">
       <c r="A30" s="26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C30" s="18">
         <f>SUM(D30:AC30)</f>
@@ -4024,10 +4024,10 @@
     </row>
     <row r="31" ht="27" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C31" s="15">
         <f>SUM(D31:AC31)</f>
@@ -4062,10 +4062,10 @@
     </row>
     <row r="32" ht="27" customHeight="1">
       <c r="A32" s="29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" s="12">
         <f>SUM(D32:AC32)</f>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="33" ht="27" customHeight="1">
       <c r="A33" s="29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="15">
         <f>SUM(D33:AC33)</f>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="34" ht="30.05" customHeight="1">
       <c r="A34" s="21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C34" s="18">
         <f>SUM(D34:AC34)</f>
@@ -4176,10 +4176,10 @@
     </row>
     <row r="35" ht="27" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C35" s="22">
         <f>SUM(D35:AC35)</f>
@@ -4214,10 +4214,10 @@
     </row>
     <row r="36" ht="27" customHeight="1">
       <c r="A36" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C36" s="18">
         <f>SUM(D36:AC36)</f>
@@ -4252,10 +4252,10 @@
     </row>
     <row r="37" ht="27" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C37" s="22">
         <f>SUM(D37:AC37)</f>
@@ -4290,10 +4290,10 @@
     </row>
     <row r="38" ht="30.05" customHeight="1">
       <c r="A38" s="29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C38" s="18">
         <f>SUM(D38:AC38)</f>
@@ -4328,10 +4328,10 @@
     </row>
     <row r="39" ht="30.05" customHeight="1">
       <c r="A39" s="29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C39" s="22">
         <f>SUM(D39:AC39)</f>
@@ -4366,10 +4366,10 @@
     </row>
     <row r="40" ht="27" customHeight="1">
       <c r="A40" s="29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C40" s="18">
         <f>SUM(D40:AC40)</f>
@@ -4404,10 +4404,10 @@
     </row>
     <row r="41" ht="27" customHeight="1">
       <c r="A41" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="15">
         <f>SUM(D41:AC41)</f>
@@ -4442,10 +4442,10 @@
     </row>
     <row r="42" ht="27" customHeight="1">
       <c r="A42" s="30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C42" s="12">
         <f>SUM(D42:AC42)</f>
@@ -4480,10 +4480,10 @@
     </row>
     <row r="43" ht="27" customHeight="1">
       <c r="A43" s="29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C43" s="22">
         <f>SUM(D43:AC43)</f>
@@ -4518,10 +4518,10 @@
     </row>
     <row r="44" ht="27" customHeight="1">
       <c r="A44" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C44" s="18">
         <f>SUM(D44:AC44)</f>
@@ -4556,10 +4556,10 @@
     </row>
     <row r="45" ht="27" customHeight="1">
       <c r="A45" s="29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C45" s="22">
         <f>SUM(D45:AC45)</f>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="46" ht="27" customHeight="1">
       <c r="A46" s="29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C46" s="18">
         <f>SUM(D46:AC46)</f>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="47" ht="27" customHeight="1">
       <c r="A47" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C47" s="15">
         <f>SUM(D47:J47)</f>
@@ -4670,10 +4670,10 @@
     </row>
     <row r="48" ht="27" customHeight="1">
       <c r="A48" s="49" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C48" s="12">
         <f>SUM(D48:AC48)</f>
@@ -4708,10 +4708,10 @@
     </row>
     <row r="49" ht="27" customHeight="1">
       <c r="A49" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C49" s="15">
         <f>SUM(D49:J49)</f>
@@ -4746,10 +4746,10 @@
     </row>
     <row r="50" ht="30.05" customHeight="1">
       <c r="A50" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C50" s="18">
         <f>SUM(D50:AC50)</f>
@@ -4784,10 +4784,10 @@
     </row>
     <row r="51" ht="27" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C51" s="15">
         <f>SUM(D51:AC51)</f>
@@ -4822,10 +4822,10 @@
     </row>
     <row r="52" ht="27" customHeight="1">
       <c r="A52" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C52" s="12">
         <f>SUM(D52:AC52)</f>
@@ -4860,10 +4860,10 @@
     </row>
     <row r="53" ht="27" customHeight="1">
       <c r="A53" s="29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C53" s="22">
         <f>SUM(D53:AC53)</f>
@@ -4898,10 +4898,10 @@
     </row>
     <row r="54" ht="27" customHeight="1">
       <c r="A54" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C54" s="12">
         <f>SUM(D54:AC54)</f>
@@ -4936,10 +4936,10 @@
     </row>
     <row r="55" ht="27" customHeight="1">
       <c r="A55" s="26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C55" s="15">
         <f>SUM(D55:AC55)</f>
@@ -4973,11 +4973,11 @@
       <c r="AC55" s="16"/>
     </row>
     <row r="56" ht="27" customHeight="1">
-      <c r="A56" s="10" t="s">
-        <v>111</v>
+      <c r="A56" s="50" t="s">
+        <v>113</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C56" s="12">
         <f>SUM(D56:AC56)</f>
@@ -5012,10 +5012,10 @@
     </row>
     <row r="57" ht="27" customHeight="1">
       <c r="A57" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C57" s="15">
         <f>SUM(D57:AC57)</f>
@@ -5049,11 +5049,11 @@
       <c r="AC57" s="16"/>
     </row>
     <row r="58" ht="27" customHeight="1">
-      <c r="A58" s="50" t="s">
-        <v>115</v>
+      <c r="A58" s="51" t="s">
+        <v>117</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C58" s="18">
         <f>SUM(D58:AC58)</f>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="59" ht="27" customHeight="1">
       <c r="A59" s="29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C59" s="22">
         <f>SUM(D59:AC59)</f>
@@ -5126,10 +5126,10 @@
     </row>
     <row r="60" ht="30.05" customHeight="1">
       <c r="A60" s="29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C60" s="18">
         <f>SUM(D60:AC60)</f>
@@ -5164,10 +5164,10 @@
     </row>
     <row r="61" ht="27" customHeight="1">
       <c r="A61" s="29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C61" s="15">
         <f>SUM(D61:AC61)</f>
@@ -5202,10 +5202,10 @@
     </row>
     <row r="62" ht="27" customHeight="1">
       <c r="A62" s="29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C62" s="12">
         <f>SUM(D62:AC62)</f>
@@ -5239,10 +5239,10 @@
       <c r="AC62" s="13"/>
     </row>
     <row r="63" ht="27" customHeight="1">
-      <c r="A63" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="52"/>
+      <c r="A63" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="53"/>
       <c r="C63" s="15">
         <f>SUM(D63:AC63)</f>
         <v>0</v>
@@ -5276,10 +5276,10 @@
     </row>
     <row r="64" ht="30.05" customHeight="1">
       <c r="A64" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C64" s="18">
         <f>SUM(D64:AC64)</f>
@@ -5314,10 +5314,10 @@
     </row>
     <row r="65" ht="27" customHeight="1">
       <c r="A65" s="30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C65" s="15">
         <f>SUM(D65:AC65)</f>
@@ -5351,11 +5351,11 @@
       <c r="AC65" s="16"/>
     </row>
     <row r="66" ht="27" customHeight="1">
-      <c r="A66" s="50" t="s">
-        <v>123</v>
+      <c r="A66" s="51" t="s">
+        <v>125</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C66" s="12">
         <f>SUM(D66:AC66)</f>
@@ -5390,10 +5390,10 @@
     </row>
     <row r="67" ht="27" customHeight="1">
       <c r="A67" s="29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C67" s="15">
         <f>SUM(D67:AC67)</f>
@@ -5428,10 +5428,10 @@
     </row>
     <row r="68" ht="27" customHeight="1">
       <c r="A68" s="30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C68" s="12">
         <f>SUM(D68:AC68)</f>
@@ -5466,10 +5466,10 @@
     </row>
     <row r="69" ht="27" customHeight="1">
       <c r="A69" s="29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C69" s="15">
         <f>SUM(D69:AC69)</f>
@@ -5503,11 +5503,11 @@
       <c r="AC69" s="16"/>
     </row>
     <row r="70" ht="27" customHeight="1">
-      <c r="A70" s="10" t="s">
-        <v>127</v>
+      <c r="A70" s="54" t="s">
+        <v>129</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C70" s="12">
         <f>SUM(D70:AC70)</f>
@@ -5541,11 +5541,11 @@
       <c r="AC70" s="13"/>
     </row>
     <row r="71" ht="27" customHeight="1">
-      <c r="A71" s="53" t="s">
-        <v>129</v>
+      <c r="A71" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C71" s="15">
         <f>SUM(D71:AC71)</f>
@@ -5579,11 +5579,11 @@
       <c r="AC71" s="16"/>
     </row>
     <row r="72" ht="27" customHeight="1">
-      <c r="A72" s="53" t="s">
-        <v>130</v>
+      <c r="A72" s="55" t="s">
+        <v>132</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C72" s="12">
         <f>SUM(D72:AC72)</f>
@@ -5618,10 +5618,10 @@
     </row>
     <row r="73" ht="27" customHeight="1">
       <c r="A73" s="29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C73" s="15">
         <f>SUM(D73:AC73)</f>
@@ -5630,7 +5630,7 @@
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
-      <c r="G73" s="54"/>
+      <c r="G73" s="56"/>
       <c r="H73" s="23"/>
       <c r="I73" s="24"/>
       <c r="J73" s="16"/>
@@ -5656,10 +5656,10 @@
     </row>
     <row r="74" ht="27" customHeight="1">
       <c r="A74" s="46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C74" s="12">
         <f>SUM(D74:AC74)</f>
@@ -5694,10 +5694,10 @@
     </row>
     <row r="75" ht="27" customHeight="1">
       <c r="A75" s="26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C75" s="15">
         <f>SUM(D75:AC75)</f>
@@ -5732,10 +5732,10 @@
     </row>
     <row r="76" ht="27" customHeight="1">
       <c r="A76" s="29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C76" s="18">
         <f>SUM(D76:AC76)</f>
@@ -5770,10 +5770,10 @@
     </row>
     <row r="77" ht="27" customHeight="1">
       <c r="A77" s="29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C77" s="22">
         <f>SUM(D77:AC77)</f>
@@ -5782,7 +5782,7 @@
       <c r="D77" s="28"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
-      <c r="G77" s="54"/>
+      <c r="G77" s="56"/>
       <c r="H77" s="23"/>
       <c r="I77" s="24"/>
       <c r="J77" s="16"/>
@@ -5808,10 +5808,10 @@
     </row>
     <row r="78" ht="27" customHeight="1">
       <c r="A78" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C78" s="12">
         <f>SUM(D78:AC78)</f>
@@ -5846,10 +5846,10 @@
     </row>
     <row r="79" ht="27" customHeight="1">
       <c r="A79" s="46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C79" s="15">
         <f>SUM(D79:AC79)</f>
@@ -5884,10 +5884,10 @@
     </row>
     <row r="80" ht="27" customHeight="1">
       <c r="A80" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C80" s="12">
         <f>SUM(D80:AC80)</f>
@@ -5922,10 +5922,10 @@
     </row>
     <row r="81" ht="27" customHeight="1">
       <c r="A81" s="29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C81" s="15">
         <f>SUM(D81:AC81)</f>
@@ -5934,7 +5934,7 @@
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
-      <c r="G81" s="54"/>
+      <c r="G81" s="56"/>
       <c r="H81" s="27"/>
       <c r="I81" s="28"/>
       <c r="J81" s="16"/>
@@ -5960,10 +5960,10 @@
     </row>
     <row r="82" ht="27" customHeight="1">
       <c r="A82" s="29" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C82" s="12">
         <f>SUM(D82:AC82)</f>
@@ -5998,10 +5998,10 @@
     </row>
     <row r="83" ht="27" customHeight="1">
       <c r="A83" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C83" s="15">
         <f>SUM(D83:AC83)</f>
@@ -6036,10 +6036,10 @@
     </row>
     <row r="84" ht="27" customHeight="1">
       <c r="A84" s="29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C84" s="12">
         <f>SUM(D84:AC84)</f>
@@ -6074,10 +6074,10 @@
     </row>
     <row r="85" ht="27" customHeight="1">
       <c r="A85" s="29" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C85" s="15">
         <f>SUM(D85:AC85)</f>
@@ -6112,10 +6112,10 @@
     </row>
     <row r="86" ht="27" customHeight="1">
       <c r="A86" s="30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C86" s="18">
         <f>SUM(D86:AC86)</f>
@@ -6150,10 +6150,10 @@
     </row>
     <row r="87" ht="27" customHeight="1">
       <c r="A87" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C87" s="15">
         <f>SUM(D87:AC87)</f>
@@ -6188,10 +6188,10 @@
     </row>
     <row r="88" ht="27" customHeight="1">
       <c r="A88" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C88" s="12">
         <f>SUM(D88:AC88)</f>
@@ -6226,10 +6226,10 @@
     </row>
     <row r="89" ht="27" customHeight="1">
       <c r="A89" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C89" s="15">
         <f>SUM(D89:AC89)</f>
@@ -6264,10 +6264,10 @@
     </row>
     <row r="90" ht="27" customHeight="1">
       <c r="A90" s="29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C90" s="18">
         <f>SUM(D90:AC90)</f>
@@ -6302,10 +6302,10 @@
     </row>
     <row r="91" ht="27" customHeight="1">
       <c r="A91" s="29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C91" s="22">
         <f>SUM(D91:AC91)</f>
@@ -6314,7 +6314,7 @@
       <c r="D91" s="28"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
-      <c r="G91" s="54"/>
+      <c r="G91" s="56"/>
       <c r="H91" s="23"/>
       <c r="I91" s="24"/>
       <c r="J91" s="16"/>
@@ -6340,10 +6340,10 @@
     </row>
     <row r="92" ht="27" customHeight="1">
       <c r="A92" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C92" s="12">
         <f>SUM(D92:AC92)</f>
@@ -6378,16 +6378,16 @@
     </row>
     <row r="93" ht="27" customHeight="1">
       <c r="A93" s="30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C93" s="15">
         <f>SUM(D93:AC93)</f>
         <v>0</v>
       </c>
-      <c r="D93" s="55"/>
+      <c r="D93" s="57"/>
       <c r="E93" s="23"/>
       <c r="F93" s="23"/>
       <c r="G93" s="23"/>
@@ -6416,10 +6416,10 @@
     </row>
     <row r="94" ht="27" customHeight="1">
       <c r="A94" s="29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C94" s="18">
         <f>SUM(D94:AC94)</f>
@@ -6454,10 +6454,10 @@
     </row>
     <row r="95" ht="27" customHeight="1">
       <c r="A95" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C95" s="15">
         <f>SUM(D95:AC95)</f>
@@ -6492,10 +6492,10 @@
     </row>
     <row r="96" ht="27" customHeight="1">
       <c r="A96" s="29" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C96" s="12">
         <f>SUM(D96:AC96)</f>
@@ -6530,10 +6530,10 @@
     </row>
     <row r="97" ht="27" customHeight="1">
       <c r="A97" s="26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C97" s="15">
         <f>SUM(D97:AC97)</f>
@@ -6568,10 +6568,10 @@
     </row>
     <row r="98" ht="27" customHeight="1">
       <c r="A98" s="29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C98" s="18">
         <f>SUM(D98:AC98)</f>
@@ -6606,10 +6606,10 @@
     </row>
     <row r="99" ht="27" customHeight="1">
       <c r="A99" s="29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C99" s="15">
         <f>SUM(D99:AC99)</f>
@@ -6618,7 +6618,7 @@
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
-      <c r="G99" s="54"/>
+      <c r="G99" s="56"/>
       <c r="H99" s="23"/>
       <c r="I99" s="24"/>
       <c r="J99" s="16"/>
@@ -6644,10 +6644,10 @@
     </row>
     <row r="100" ht="27" customHeight="1">
       <c r="A100" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C100" s="12">
         <f>SUM(D100:AC100)</f>
@@ -6681,11 +6681,11 @@
       <c r="AC100" s="13"/>
     </row>
     <row r="101" ht="27" customHeight="1">
-      <c r="A101" s="56" t="s">
-        <v>164</v>
+      <c r="A101" s="58" t="s">
+        <v>166</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C101" s="15">
         <f>SUM(D101:AC101)</f>
@@ -6719,11 +6719,11 @@
       <c r="AC101" s="16"/>
     </row>
     <row r="102" ht="27" customHeight="1">
-      <c r="A102" s="50" t="s">
-        <v>165</v>
+      <c r="A102" s="51" t="s">
+        <v>167</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C102" s="12">
         <f>SUM(D102:AC102)</f>
@@ -6757,11 +6757,11 @@
       <c r="AC102" s="13"/>
     </row>
     <row r="103" ht="27" customHeight="1">
-      <c r="A103" s="53" t="s">
-        <v>166</v>
+      <c r="A103" s="55" t="s">
+        <v>168</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C103" s="15">
         <f>SUM(D103:AC103)</f>
@@ -6796,10 +6796,10 @@
     </row>
     <row r="104" ht="27" customHeight="1">
       <c r="A104" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C104" s="12">
         <f>SUM(D104:AC104)</f>
@@ -6833,11 +6833,11 @@
       <c r="AC104" s="13"/>
     </row>
     <row r="105" ht="27" customHeight="1">
-      <c r="A105" s="53" t="s">
-        <v>168</v>
+      <c r="A105" s="55" t="s">
+        <v>170</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C105" s="15">
         <f>SUM(D105:AC105)</f>
@@ -6872,10 +6872,10 @@
     </row>
     <row r="106" ht="27" customHeight="1">
       <c r="A106" s="29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C106" s="12">
         <f>SUM(D106:AC106)</f>
@@ -6910,10 +6910,10 @@
     </row>
     <row r="107" ht="27" customHeight="1">
       <c r="A107" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C107" s="22">
         <f>SUM(D107:AC107)</f>
@@ -6948,10 +6948,10 @@
     </row>
     <row r="108" ht="27" customHeight="1">
       <c r="A108" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C108" s="12">
         <f>SUM(D108:AC108)</f>
@@ -6986,10 +6986,10 @@
     </row>
     <row r="109" ht="27" customHeight="1">
       <c r="A109" s="29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C109" s="15">
         <f>SUM(D109:AC109)</f>
@@ -6998,7 +6998,7 @@
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
-      <c r="G109" s="54"/>
+      <c r="G109" s="56"/>
       <c r="H109" s="23"/>
       <c r="I109" s="24"/>
       <c r="J109" s="16"/>
@@ -7024,10 +7024,10 @@
     </row>
     <row r="110" ht="27" customHeight="1">
       <c r="A110" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C110" s="12">
         <f>SUM(D110:AC110)</f>
@@ -7062,10 +7062,10 @@
     </row>
     <row r="111" ht="27" customHeight="1">
       <c r="A111" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C111" s="15">
         <f>SUM(D111:AC111)</f>
@@ -7100,10 +7100,10 @@
     </row>
     <row r="112" ht="27" customHeight="1">
       <c r="A112" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C112" s="12">
         <f>SUM(D112:AC112)</f>
@@ -7137,11 +7137,11 @@
       <c r="AC112" s="13"/>
     </row>
     <row r="113" ht="27" customHeight="1">
-      <c r="A113" s="50" t="s">
-        <v>176</v>
+      <c r="A113" s="51" t="s">
+        <v>178</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C113" s="22">
         <f>SUM(D113:AC113)</f>
@@ -7151,7 +7151,7 @@
       <c r="E113" s="27"/>
       <c r="F113" s="27"/>
       <c r="G113" s="27"/>
-      <c r="H113" s="57"/>
+      <c r="H113" s="59"/>
       <c r="I113" s="35"/>
       <c r="J113" s="16"/>
       <c r="K113" s="16"/>
@@ -7176,10 +7176,10 @@
     </row>
     <row r="114" ht="27" customHeight="1">
       <c r="A114" s="29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C114" s="18">
         <f>SUM(D114:AC114)</f>
@@ -7214,10 +7214,10 @@
     </row>
     <row r="115" ht="27" customHeight="1">
       <c r="A115" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C115" s="15">
         <f>SUM(D115:AC115)</f>
@@ -7252,10 +7252,10 @@
     </row>
     <row r="116" ht="27" customHeight="1">
       <c r="A116" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C116" s="12">
         <f>SUM(D116:J116)</f>
@@ -7288,12 +7288,12 @@
       <c r="AB116" s="13"/>
       <c r="AC116" s="13"/>
     </row>
-    <row r="117" ht="36.65" customHeight="1">
+    <row r="117" ht="25.85" customHeight="1">
       <c r="A117" s="29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C117" s="22">
         <f>SUM(D117:AC117)</f>
@@ -7328,10 +7328,10 @@
     </row>
     <row r="118" ht="27" customHeight="1">
       <c r="A118" s="29" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C118" s="18">
         <f>SUM(D118:AC118)</f>
@@ -7366,10 +7366,10 @@
     </row>
     <row r="119" ht="27" customHeight="1">
       <c r="A119" s="29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C119" s="15">
         <f>SUM(D119:AC119)</f>
@@ -7378,7 +7378,7 @@
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
-      <c r="G119" s="54"/>
+      <c r="G119" s="56"/>
       <c r="H119" s="23"/>
       <c r="I119" s="24"/>
       <c r="J119" s="16"/>
@@ -7403,11 +7403,11 @@
       <c r="AC119" s="16"/>
     </row>
     <row r="120" ht="27" customHeight="1">
-      <c r="A120" s="53" t="s">
-        <v>183</v>
+      <c r="A120" s="55" t="s">
+        <v>185</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C120" s="12">
         <f>SUM(D120:AC120)</f>
@@ -7442,10 +7442,10 @@
     </row>
     <row r="121" ht="27" customHeight="1">
       <c r="A121" s="29" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C121" s="15">
         <f>SUM(D121:AC121)</f>
@@ -7454,7 +7454,7 @@
       <c r="D121" s="16"/>
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
-      <c r="G121" s="54"/>
+      <c r="G121" s="56"/>
       <c r="H121" s="23"/>
       <c r="I121" s="24"/>
       <c r="J121" s="16"/>
@@ -7480,10 +7480,10 @@
     </row>
     <row r="122" ht="27" customHeight="1">
       <c r="A122" s="30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C122" s="12">
         <f>SUM(D122:AC122)</f>
@@ -7518,10 +7518,10 @@
     </row>
     <row r="123" ht="27" customHeight="1">
       <c r="A123" s="46" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C123" s="15">
         <f>SUM(D123:AC123)</f>
@@ -7556,10 +7556,10 @@
     </row>
     <row r="124" ht="27" customHeight="1">
       <c r="A124" s="30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C124" s="12">
         <f>SUM(D124:AC124)</f>
@@ -7594,10 +7594,10 @@
     </row>
     <row r="125" ht="27" customHeight="1">
       <c r="A125" s="29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C125" s="15">
         <f>SUM(D125:AC125)</f>
@@ -7632,10 +7632,10 @@
     </row>
     <row r="126" ht="27" customHeight="1">
       <c r="A126" s="29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C126" s="18">
         <f>SUM(D126:AC126)</f>
@@ -7670,10 +7670,10 @@
     </row>
     <row r="127" ht="27" customHeight="1">
       <c r="A127" s="29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C127" s="15">
         <f>SUM(D127:AC127)</f>
@@ -7708,10 +7708,10 @@
     </row>
     <row r="128" ht="27" customHeight="1">
       <c r="A128" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C128" s="12">
         <f>SUM(D128:AC128)</f>
@@ -7745,11 +7745,11 @@
       <c r="AC128" s="13"/>
     </row>
     <row r="129" ht="27" customHeight="1">
-      <c r="A129" s="53" t="s">
-        <v>192</v>
+      <c r="A129" s="55" t="s">
+        <v>194</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C129" s="15">
         <f>SUM(D129:AC129)</f>
@@ -7759,7 +7759,7 @@
       <c r="E129" s="36"/>
       <c r="F129" s="36"/>
       <c r="G129" s="37"/>
-      <c r="H129" s="57"/>
+      <c r="H129" s="59"/>
       <c r="I129" s="35"/>
       <c r="J129" s="16"/>
       <c r="K129" s="16"/>
@@ -7784,10 +7784,10 @@
     </row>
     <row r="130" ht="27" customHeight="1">
       <c r="A130" s="29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C130" s="18">
         <f>SUM(D130:AC130)</f>
@@ -7821,11 +7821,11 @@
       <c r="AC130" s="13"/>
     </row>
     <row r="131" ht="27" customHeight="1">
-      <c r="A131" s="58" t="s">
-        <v>194</v>
+      <c r="A131" s="60" t="s">
+        <v>196</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C131" s="15">
         <f>SUM(D131:AC131)</f>
@@ -7859,11 +7859,11 @@
       <c r="AC131" s="16"/>
     </row>
     <row r="132" ht="27" customHeight="1">
-      <c r="A132" s="59" t="s">
-        <v>196</v>
+      <c r="A132" s="61" t="s">
+        <v>198</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C132" s="18">
         <f>SUM(D132:AC132)</f>
@@ -7897,11 +7897,11 @@
       <c r="AC132" s="13"/>
     </row>
     <row r="133" ht="27" customHeight="1">
-      <c r="A133" s="60" t="s">
-        <v>197</v>
+      <c r="A133" s="62" t="s">
+        <v>199</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C133" s="15">
         <f>SUM(D133:AC133)</f>
@@ -7936,10 +7936,10 @@
     </row>
     <row r="134" ht="27" customHeight="1">
       <c r="A134" s="21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C134" s="12">
         <f>SUM(D134:AC134)</f>
@@ -7974,10 +7974,10 @@
     </row>
     <row r="135" ht="27" customHeight="1">
       <c r="A135" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C135" s="15">
         <f>SUM(D135:AC135)</f>
@@ -8012,10 +8012,10 @@
     </row>
     <row r="136" ht="27" customHeight="1">
       <c r="A136" s="21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C136" s="12">
         <f>SUM(D136:AC136)</f>
@@ -8050,10 +8050,10 @@
     </row>
     <row r="137" ht="27" customHeight="1">
       <c r="A137" s="29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C137" s="22">
         <f>SUM(D137:AC137)</f>
@@ -8062,7 +8062,7 @@
       <c r="D137" s="28"/>
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
-      <c r="G137" s="54"/>
+      <c r="G137" s="56"/>
       <c r="H137" s="23"/>
       <c r="I137" s="24"/>
       <c r="J137" s="16"/>
@@ -8088,10 +8088,10 @@
     </row>
     <row r="138" ht="27" customHeight="1">
       <c r="A138" s="25" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C138" s="12">
         <f>SUM(D138:AC138)</f>
@@ -8126,10 +8126,10 @@
     </row>
     <row r="139" ht="27" customHeight="1">
       <c r="A139" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C139" s="15">
         <f>SUM(D139:AC139)</f>
@@ -8164,10 +8164,10 @@
     </row>
     <row r="140" ht="27" customHeight="1">
       <c r="A140" s="29" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C140" s="18">
         <f>SUM(D140:AC140)</f>
@@ -8202,10 +8202,10 @@
     </row>
     <row r="141" ht="27" customHeight="1">
       <c r="A141" s="26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C141" s="15">
         <f>SUM(D141:AC141)</f>
@@ -8240,10 +8240,10 @@
     </row>
     <row r="142" ht="27" customHeight="1">
       <c r="A142" s="26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C142" s="12">
         <f>SUM(D142:AC142)</f>
@@ -8278,10 +8278,10 @@
     </row>
     <row r="143" ht="27" customHeight="1">
       <c r="A143" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C143" s="15">
         <f>SUM(D143:AC143)</f>
@@ -8316,10 +8316,10 @@
     </row>
     <row r="144" ht="34" customHeight="1">
       <c r="A144" s="29" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C144" s="18">
         <f>SUM(D144:AC144)</f>
@@ -8354,10 +8354,10 @@
     </row>
     <row r="145" ht="27" customHeight="1">
       <c r="A145" s="46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C145" s="15">
         <f>SUM(D145:AC145)</f>
@@ -8392,10 +8392,10 @@
     </row>
     <row r="146" ht="27" customHeight="1">
       <c r="A146" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C146" s="12">
         <f>SUM(D146:AC146)</f>
@@ -8430,10 +8430,10 @@
     </row>
     <row r="147" ht="34" customHeight="1">
       <c r="A147" s="29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C147" s="22">
         <f>SUM(D147:AC147)</f>
@@ -8468,10 +8468,10 @@
     </row>
     <row r="148" ht="27" customHeight="1">
       <c r="A148" s="21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C148" s="12">
         <f>SUM(D148:AC148)</f>
@@ -8506,10 +8506,10 @@
     </row>
     <row r="149" ht="27" customHeight="1">
       <c r="A149" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C149" s="15">
         <f>SUM(D149:J149)</f>
@@ -8544,10 +8544,10 @@
     </row>
     <row r="150" ht="27" customHeight="1">
       <c r="A150" s="21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C150" s="12">
         <f>SUM(D150:AC150)</f>
@@ -8582,10 +8582,10 @@
     </row>
     <row r="151" ht="27" customHeight="1">
       <c r="A151" s="21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C151" s="15">
         <f>SUM(D151:AC151)</f>
@@ -8620,10 +8620,10 @@
     </row>
     <row r="152" ht="30.05" customHeight="1">
       <c r="A152" s="21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C152" s="18">
         <f>SUM(D152:AC152)</f>
@@ -8658,10 +8658,10 @@
     </row>
     <row r="153" ht="27" customHeight="1">
       <c r="A153" s="21" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C153" s="15">
         <f>SUM(D153:AC153)</f>
@@ -8696,10 +8696,10 @@
     </row>
     <row r="154" ht="27" customHeight="1">
       <c r="A154" s="26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C154" s="18">
         <f>SUM(D154:AC154)</f>
@@ -8734,10 +8734,10 @@
     </row>
     <row r="155" ht="27" customHeight="1">
       <c r="A155" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C155" s="15">
         <f>SUM(D155:AC155)</f>
@@ -8771,11 +8771,11 @@
       <c r="AC155" s="16"/>
     </row>
     <row r="156" ht="27" customHeight="1">
-      <c r="A156" s="50" t="s">
-        <v>222</v>
+      <c r="A156" s="51" t="s">
+        <v>224</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C156" s="18">
         <f>SUM(D156:AC156)</f>
@@ -8810,10 +8810,10 @@
     </row>
     <row r="157" ht="27" customHeight="1">
       <c r="A157" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C157" s="15">
         <f>SUM(D157:AC157)</f>
@@ -8848,10 +8848,10 @@
     </row>
     <row r="158" ht="27" customHeight="1">
       <c r="A158" s="26" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C158" s="12">
         <f>SUM(D158:AC158)</f>
@@ -8886,10 +8886,10 @@
     </row>
     <row r="159" ht="31.3" customHeight="1">
       <c r="A159" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C159" s="22">
         <f>SUM(D159:AC159)</f>
@@ -8923,11 +8923,11 @@
       <c r="AC159" s="16"/>
     </row>
     <row r="160" ht="27" customHeight="1">
-      <c r="A160" s="50" t="s">
-        <v>226</v>
+      <c r="A160" s="51" t="s">
+        <v>228</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C160" s="18">
         <f>SUM(D160:AC160)</f>
@@ -8936,7 +8936,9 @@
       <c r="D160" s="40"/>
       <c r="E160" s="40"/>
       <c r="F160" s="40"/>
-      <c r="G160" s="40"/>
+      <c r="G160" s="40" t="s">
+        <v>31</v>
+      </c>
       <c r="H160" s="40"/>
       <c r="I160" s="41"/>
       <c r="J160" s="13"/>
@@ -8962,10 +8964,10 @@
     </row>
     <row r="161" ht="27" customHeight="1">
       <c r="A161" s="25" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C161" s="15">
         <f>SUM(D161:AC161)</f>
@@ -8999,11 +9001,11 @@
       <c r="AC161" s="16"/>
     </row>
     <row r="162" ht="27" customHeight="1">
-      <c r="A162" s="53" t="s">
-        <v>229</v>
+      <c r="A162" s="55" t="s">
+        <v>231</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C162" s="12">
         <f>SUM(D162:AC162)</f>
@@ -9038,10 +9040,10 @@
     </row>
     <row r="163" ht="27" customHeight="1">
       <c r="A163" s="29" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C163" s="22">
         <f>SUM(D163:AC163)</f>
@@ -9075,11 +9077,11 @@
       <c r="AC163" s="16"/>
     </row>
     <row r="164" ht="27" customHeight="1">
-      <c r="A164" s="50" t="s">
-        <v>231</v>
+      <c r="A164" s="51" t="s">
+        <v>233</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C164" s="12">
         <f>SUM(D164:AC164)</f>
@@ -9114,10 +9116,10 @@
     </row>
     <row r="165" ht="27" customHeight="1">
       <c r="A165" s="29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C165" s="22">
         <f>SUM(D165:AC165)</f>
@@ -9126,7 +9128,7 @@
       <c r="D165" s="28"/>
       <c r="E165" s="16"/>
       <c r="F165" s="16"/>
-      <c r="G165" s="54"/>
+      <c r="G165" s="56"/>
       <c r="H165" s="23"/>
       <c r="I165" s="24"/>
       <c r="J165" s="16"/>
@@ -9152,10 +9154,10 @@
     </row>
     <row r="166" ht="27" customHeight="1">
       <c r="A166" s="30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C166" s="12">
         <f>SUM(D166:AC166)</f>
@@ -9190,10 +9192,10 @@
     </row>
     <row r="167" ht="27" customHeight="1">
       <c r="A167" s="21" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C167" s="15">
         <f>SUM(D167:AC167)</f>
@@ -9228,10 +9230,10 @@
     </row>
     <row r="168" ht="27" customHeight="1">
       <c r="A168" s="29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C168" s="18">
         <f>SUM(D168:AC168)</f>
@@ -9266,10 +9268,10 @@
     </row>
     <row r="169" ht="27" customHeight="1">
       <c r="A169" s="25" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C169" s="15">
         <f>SUM(D169:AC169)</f>
@@ -9304,10 +9306,10 @@
     </row>
     <row r="170" ht="27" customHeight="1">
       <c r="A170" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C170" s="12">
         <f>SUM(D170:AC170)</f>
@@ -9342,10 +9344,10 @@
     </row>
     <row r="171" ht="27" customHeight="1">
       <c r="A171" s="29" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C171" s="22">
         <f>SUM(D171:AC171)</f>
@@ -9379,11 +9381,11 @@
       <c r="AC171" s="16"/>
     </row>
     <row r="172" ht="27" customHeight="1">
-      <c r="A172" s="53" t="s">
-        <v>239</v>
+      <c r="A172" s="55" t="s">
+        <v>241</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C172" s="12">
         <f>SUM(D172:AC172)</f>
@@ -9418,10 +9420,10 @@
     </row>
     <row r="173" ht="27" customHeight="1">
       <c r="A173" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C173" s="15">
         <f>SUM(D173:J173)</f>
@@ -9456,10 +9458,10 @@
     </row>
     <row r="174" ht="27" customHeight="1">
       <c r="A174" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C174" s="12">
         <f>SUM(D174:J174)</f>
@@ -9494,10 +9496,10 @@
     </row>
     <row r="175" ht="27" customHeight="1">
       <c r="A175" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C175" s="15">
         <f>SUM(D175:AC175)</f>
@@ -9532,10 +9534,10 @@
     </row>
     <row r="176" ht="27" customHeight="1">
       <c r="A176" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C176" s="12">
         <f>SUM(D176:AC176)</f>
@@ -9570,10 +9572,10 @@
     </row>
     <row r="177" ht="27" customHeight="1">
       <c r="A177" s="30" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C177" s="15">
         <f>SUM(D177:AC177)</f>
@@ -9582,7 +9584,7 @@
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
       <c r="F177" s="16"/>
-      <c r="G177" s="54"/>
+      <c r="G177" s="56"/>
       <c r="H177" s="23"/>
       <c r="I177" s="24"/>
       <c r="J177" s="16"/>
@@ -9608,10 +9610,10 @@
     </row>
     <row r="178" ht="27" customHeight="1">
       <c r="A178" s="46" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C178" s="12">
         <f>SUM(D178:AC178)</f>
@@ -9646,10 +9648,10 @@
     </row>
     <row r="179" ht="27" customHeight="1">
       <c r="A179" s="29" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C179" s="15">
         <f>SUM(D179:AC179)</f>
@@ -9683,11 +9685,11 @@
       <c r="AC179" s="16"/>
     </row>
     <row r="180" ht="27" customHeight="1">
-      <c r="A180" s="56" t="s">
-        <v>248</v>
+      <c r="A180" s="58" t="s">
+        <v>250</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C180" s="12">
         <f>SUM(D180:AC180)</f>
@@ -9722,10 +9724,10 @@
     </row>
     <row r="181" ht="27" customHeight="1">
       <c r="A181" s="26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C181" s="22">
         <f>SUM(D181:AC181)</f>
@@ -9760,10 +9762,10 @@
     </row>
     <row r="182" ht="27" customHeight="1">
       <c r="A182" s="21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C182" s="18">
         <f>SUM(D182:AC182)</f>
@@ -9798,10 +9800,10 @@
     </row>
     <row r="183" ht="27" customHeight="1">
       <c r="A183" s="21" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C183" s="22">
         <f>SUM(D183:AC183)</f>
@@ -9836,10 +9838,10 @@
     </row>
     <row r="184" ht="27" customHeight="1">
       <c r="A184" s="29" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C184" s="18">
         <f>SUM(D184:AC184)</f>
@@ -9874,10 +9876,10 @@
     </row>
     <row r="185" ht="27" customHeight="1">
       <c r="A185" s="29" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C185" s="15">
         <f>SUM(D185:AC185)</f>
@@ -9912,10 +9914,10 @@
     </row>
     <row r="186" ht="27" customHeight="1">
       <c r="A186" s="21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C186" s="12">
         <f>SUM(D186:AC186)</f>
@@ -9950,10 +9952,10 @@
     </row>
     <row r="187" ht="27" customHeight="1">
       <c r="A187" s="29" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C187" s="15">
         <f>SUM(D187:AC187)</f>
@@ -9988,10 +9990,10 @@
     </row>
     <row r="188" ht="27" customHeight="1">
       <c r="A188" s="26" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C188" s="12">
         <f>SUM(D188:AC188)</f>
@@ -10025,11 +10027,11 @@
       <c r="AC188" s="13"/>
     </row>
     <row r="189" ht="27" customHeight="1">
-      <c r="A189" s="56" t="s">
-        <v>257</v>
+      <c r="A189" s="58" t="s">
+        <v>259</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C189" s="15">
         <f>SUM(D189:AC189)</f>
@@ -10064,10 +10066,10 @@
     </row>
     <row r="190" ht="27" customHeight="1">
       <c r="A190" s="26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C190" s="18">
         <f>SUM(D190:AC190)</f>
@@ -10102,10 +10104,10 @@
     </row>
     <row r="191" ht="27" customHeight="1">
       <c r="A191" s="29" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C191" s="15">
         <f>SUM(D191:AC191)</f>
@@ -10140,10 +10142,10 @@
     </row>
     <row r="192" ht="27" customHeight="1">
       <c r="A192" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C192" s="12">
         <f>SUM(D192:AC192)</f>
@@ -10177,11 +10179,11 @@
       <c r="AC192" s="13"/>
     </row>
     <row r="193" ht="27" customHeight="1">
-      <c r="A193" s="56" t="s">
-        <v>261</v>
+      <c r="A193" s="58" t="s">
+        <v>263</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C193" s="15">
         <f>SUM(D193:AC193)</f>
@@ -10215,11 +10217,11 @@
       <c r="AC193" s="16"/>
     </row>
     <row r="194" ht="27" customHeight="1">
-      <c r="A194" s="56" t="s">
-        <v>262</v>
+      <c r="A194" s="58" t="s">
+        <v>264</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C194" s="12">
         <f>SUM(D194:AC194)</f>
@@ -10254,10 +10256,10 @@
     </row>
     <row r="195" ht="27" customHeight="1">
       <c r="A195" s="29" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C195" s="22">
         <f>SUM(D195:AC195)</f>
@@ -10292,10 +10294,10 @@
     </row>
     <row r="196" ht="27" customHeight="1">
       <c r="A196" s="26" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C196" s="12">
         <f>SUM(D196:AC196)</f>
@@ -10330,10 +10332,10 @@
     </row>
     <row r="197" ht="27" customHeight="1">
       <c r="A197" s="30" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C197" s="15">
         <f>SUM(D197:AC197)</f>
@@ -10367,11 +10369,11 @@
       <c r="AC197" s="16"/>
     </row>
     <row r="198" ht="27" customHeight="1">
-      <c r="A198" s="50" t="s">
-        <v>266</v>
+      <c r="A198" s="51" t="s">
+        <v>268</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C198" s="12">
         <f>SUM(D198:AC198)</f>
@@ -10406,10 +10408,10 @@
     </row>
     <row r="199" ht="27" customHeight="1">
       <c r="A199" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C199" s="15">
         <f>SUM(D199:J199)</f>
@@ -10444,10 +10446,10 @@
     </row>
     <row r="200" ht="27" customHeight="1">
       <c r="A200" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C200" s="12">
         <f>SUM(D200:AC200)</f>
@@ -10482,10 +10484,10 @@
     </row>
     <row r="201" ht="27" customHeight="1">
       <c r="A201" s="29" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C201" s="15">
         <f>SUM(D201:AC201)</f>
@@ -10520,10 +10522,10 @@
     </row>
     <row r="202" ht="27" customHeight="1">
       <c r="A202" s="29" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C202" s="12">
         <f>SUM(D202:AC202)</f>
@@ -10557,11 +10559,11 @@
       <c r="AC202" s="13"/>
     </row>
     <row r="203" ht="27" customHeight="1">
-      <c r="A203" s="10" t="s">
-        <v>271</v>
+      <c r="A203" s="50" t="s">
+        <v>273</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C203" s="15">
         <f>SUM(D203:AC203)</f>
@@ -10595,11 +10597,11 @@
       <c r="AC203" s="16"/>
     </row>
     <row r="204" ht="27" customHeight="1">
-      <c r="A204" s="53" t="s">
-        <v>272</v>
+      <c r="A204" s="55" t="s">
+        <v>274</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C204" s="12">
         <f>SUM(D204:AC204)</f>
@@ -10634,10 +10636,10 @@
     </row>
     <row r="205" ht="27" customHeight="1">
       <c r="A205" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C205" s="15">
         <f>SUM(D205:AC205)</f>
@@ -10672,10 +10674,10 @@
     </row>
     <row r="206" ht="27" customHeight="1">
       <c r="A206" s="26" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C206" s="12">
         <f>SUM(D206:AC206)</f>
@@ -10710,10 +10712,10 @@
     </row>
     <row r="207" ht="27" customHeight="1">
       <c r="A207" s="21" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C207" s="15">
         <f>SUM(D207:AC207)</f>
@@ -10748,10 +10750,10 @@
     </row>
     <row r="208" ht="27" customHeight="1">
       <c r="A208" s="21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C208" s="12">
         <f>SUM(D208:AC208)</f>
@@ -10786,10 +10788,10 @@
     </row>
     <row r="209" ht="27" customHeight="1">
       <c r="A209" s="30" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C209" s="15">
         <f>SUM(D209:AC209)</f>
@@ -10824,10 +10826,10 @@
     </row>
     <row r="210" ht="27" customHeight="1">
       <c r="A210" s="31" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C210" s="12">
         <f>SUM(D210:AC210)</f>
@@ -10861,11 +10863,11 @@
       <c r="AC210" s="13"/>
     </row>
     <row r="211" ht="27" customHeight="1">
-      <c r="A211" s="61" t="s">
-        <v>279</v>
+      <c r="A211" s="63" t="s">
+        <v>281</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C211" s="15">
         <f>SUM(D211:AC211)</f>
@@ -10899,11 +10901,11 @@
       <c r="AC211" s="16"/>
     </row>
     <row r="212" ht="27" customHeight="1">
-      <c r="A212" s="62" t="s">
-        <v>280</v>
+      <c r="A212" s="64" t="s">
+        <v>282</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C212" s="12">
         <f>SUM(D212:AC212)</f>
@@ -10938,10 +10940,10 @@
     </row>
     <row r="213" ht="27" customHeight="1">
       <c r="A213" s="30" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C213" s="15">
         <f>SUM(D213:AC213)</f>
@@ -10976,10 +10978,10 @@
     </row>
     <row r="214" ht="27" customHeight="1">
       <c r="A214" s="29" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C214" s="18">
         <f>SUM(D214:AC214)</f>
@@ -11014,10 +11016,10 @@
     </row>
     <row r="215" ht="27" customHeight="1">
       <c r="A215" s="26" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C215" s="15">
         <f>SUM(D215:AC215)</f>
@@ -11051,11 +11053,11 @@
       <c r="AC215" s="16"/>
     </row>
     <row r="216" ht="27" customHeight="1">
-      <c r="A216" s="10" t="s">
-        <v>284</v>
+      <c r="A216" s="54" t="s">
+        <v>286</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C216" s="12">
         <f>SUM(D216:AC216)</f>
@@ -11090,10 +11092,10 @@
     </row>
     <row r="217" ht="27" customHeight="1">
       <c r="A217" s="26" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C217" s="22">
         <f>SUM(D217:AC217)</f>
@@ -11128,10 +11130,10 @@
     </row>
     <row r="218" ht="27" customHeight="1">
       <c r="A218" s="29" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C218" s="18">
         <f>SUM(D218:AC218)</f>
@@ -11166,10 +11168,10 @@
     </row>
     <row r="219" ht="27" customHeight="1">
       <c r="A219" s="29" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C219" s="22">
         <f>SUM(D219:AC219)</f>
@@ -11204,10 +11206,10 @@
     </row>
     <row r="220" ht="27" customHeight="1">
       <c r="A220" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C220" s="12">
         <f>SUM(D220:AC220)</f>
@@ -11242,10 +11244,10 @@
     </row>
     <row r="221" ht="27" customHeight="1">
       <c r="A221" s="29" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C221" s="22">
         <f>SUM(D221:AC221)</f>
@@ -11254,7 +11256,7 @@
       <c r="D221" s="28"/>
       <c r="E221" s="16"/>
       <c r="F221" s="16"/>
-      <c r="G221" s="54"/>
+      <c r="G221" s="56"/>
       <c r="H221" s="27"/>
       <c r="I221" s="28"/>
       <c r="J221" s="16"/>
@@ -11280,10 +11282,10 @@
     </row>
     <row r="222" ht="27" customHeight="1">
       <c r="A222" s="26" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C222" s="12">
         <f>SUM(D222:AC222)</f>
@@ -11318,10 +11320,10 @@
     </row>
     <row r="223" ht="27" customHeight="1">
       <c r="A223" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C223" s="15">
         <f>SUM(D223:AC223)</f>
@@ -11356,10 +11358,10 @@
     </row>
     <row r="224" ht="27" customHeight="1">
       <c r="A224" s="29" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C224" s="18">
         <f>SUM(D224:AC224)</f>
@@ -11394,10 +11396,10 @@
     </row>
     <row r="225" ht="30.05" customHeight="1">
       <c r="A225" s="29" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C225" s="22">
         <f>SUM(D225:AC225)</f>
@@ -11432,10 +11434,10 @@
     </row>
     <row r="226" ht="27" customHeight="1">
       <c r="A226" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C226" s="12">
         <f>SUM(D226:AC226)</f>
@@ -11469,11 +11471,11 @@
       <c r="AC226" s="13"/>
     </row>
     <row r="227" ht="27" customHeight="1">
-      <c r="A227" s="53" t="s">
-        <v>296</v>
+      <c r="A227" s="55" t="s">
+        <v>298</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C227" s="15">
         <f>SUM(D227:AC227)</f>
@@ -11508,10 +11510,10 @@
     </row>
     <row r="228" ht="27" customHeight="1">
       <c r="A228" s="29" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C228" s="18">
         <f>SUM(D228:AC228)</f>
@@ -11546,10 +11548,10 @@
     </row>
     <row r="229" ht="27" customHeight="1">
       <c r="A229" s="29" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C229" s="22">
         <f>SUM(D229:AC229)</f>
@@ -11558,7 +11560,7 @@
       <c r="D229" s="28"/>
       <c r="E229" s="16"/>
       <c r="F229" s="16"/>
-      <c r="G229" s="54"/>
+      <c r="G229" s="56"/>
       <c r="H229" s="23"/>
       <c r="I229" s="24"/>
       <c r="J229" s="16"/>
@@ -11584,10 +11586,10 @@
     </row>
     <row r="230" ht="27" customHeight="1">
       <c r="A230" s="26" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C230" s="12">
         <f>SUM(D230:AC230)</f>
@@ -11622,10 +11624,10 @@
     </row>
     <row r="231" ht="27" customHeight="1">
       <c r="A231" s="30" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C231" s="15">
         <f>SUM(D231:AC231)</f>
@@ -11660,10 +11662,10 @@
     </row>
     <row r="232" ht="27" customHeight="1">
       <c r="A232" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C232" s="12">
         <f>SUM(D232:AC232)</f>
@@ -11698,10 +11700,10 @@
     </row>
     <row r="233" ht="27" customHeight="1">
       <c r="A233" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C233" s="22">
         <f>SUM(D233:AC233)</f>
@@ -11711,7 +11713,7 @@
       <c r="E233" s="27"/>
       <c r="F233" s="27"/>
       <c r="G233" s="27"/>
-      <c r="H233" s="57"/>
+      <c r="H233" s="59"/>
       <c r="I233" s="35"/>
       <c r="J233" s="16"/>
       <c r="K233" s="16"/>
@@ -11736,10 +11738,10 @@
     </row>
     <row r="234" ht="27" customHeight="1">
       <c r="A234" s="29" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C234" s="18">
         <f>SUM(D234:AC234)</f>
@@ -11774,10 +11776,10 @@
     </row>
     <row r="235" ht="27" customHeight="1">
       <c r="A235" s="26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C235" s="15">
         <f>SUM(D235:AC235)</f>
@@ -11812,10 +11814,10 @@
     </row>
     <row r="236" ht="27" customHeight="1">
       <c r="A236" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C236" s="12">
         <f>SUM(D236:J236)</f>
@@ -11850,10 +11852,10 @@
     </row>
     <row r="237" ht="27" customHeight="1">
       <c r="A237" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C237" s="15">
         <f>SUM(D237:AC237)</f>
@@ -11888,10 +11890,10 @@
     </row>
     <row r="238" ht="27" customHeight="1">
       <c r="A238" s="30" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C238" s="12">
         <f>SUM(D238:AC238)</f>
@@ -11926,10 +11928,10 @@
     </row>
     <row r="239" ht="27" customHeight="1">
       <c r="A239" s="29" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C239" s="15">
         <f>SUM(D239:AC239)</f>
@@ -11963,11 +11965,11 @@
       <c r="AC239" s="16"/>
     </row>
     <row r="240" ht="27" customHeight="1">
-      <c r="A240" s="50" t="s">
-        <v>311</v>
+      <c r="A240" s="51" t="s">
+        <v>313</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C240" s="18">
         <f>SUM(D240:AC240)</f>
@@ -12002,10 +12004,10 @@
     </row>
     <row r="241" ht="27" customHeight="1">
       <c r="A241" s="29" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C241" s="15">
         <f>SUM(D241:AC241)</f>
@@ -12039,11 +12041,11 @@
       <c r="AC241" s="16"/>
     </row>
     <row r="242" ht="27" customHeight="1">
-      <c r="A242" s="63" t="s">
-        <v>313</v>
+      <c r="A242" s="65" t="s">
+        <v>315</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C242" s="12">
         <f>SUM(D242:AC242)</f>
@@ -12078,10 +12080,10 @@
     </row>
     <row r="243" ht="27" customHeight="1">
       <c r="A243" s="46" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C243" s="22">
         <f>SUM(D243:AC243)</f>
@@ -12115,11 +12117,11 @@
       <c r="AC243" s="16"/>
     </row>
     <row r="244" ht="27" customHeight="1">
-      <c r="A244" s="51" t="s">
-        <v>315</v>
+      <c r="A244" s="52" t="s">
+        <v>317</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C244" s="12">
         <f>SUM(D244:AC244)</f>
@@ -12154,10 +12156,10 @@
     </row>
     <row r="245" ht="27" customHeight="1">
       <c r="A245" s="29" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C245" s="22">
         <f>SUM(D245:AC245)</f>
@@ -12192,10 +12194,10 @@
     </row>
     <row r="246" ht="27" customHeight="1">
       <c r="A246" s="29" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C246" s="18">
         <f>SUM(D246:AC246)</f>
@@ -12230,10 +12232,10 @@
     </row>
     <row r="247" ht="27" customHeight="1">
       <c r="A247" s="21" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C247" s="22">
         <f>SUM(D247:AC247)</f>
@@ -12268,10 +12270,10 @@
     </row>
     <row r="248" ht="27" customHeight="1">
       <c r="A248" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C248" s="12">
         <f>SUM(D248:AC248)</f>
@@ -12306,20 +12308,20 @@
     </row>
     <row r="249" ht="27" customHeight="1">
       <c r="A249" s="21" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C249" s="22">
         <f>SUM(D249:AC249)</f>
         <v>0</v>
       </c>
-      <c r="D249" s="57"/>
-      <c r="E249" s="57"/>
-      <c r="F249" s="57"/>
-      <c r="G249" s="57"/>
-      <c r="H249" s="57"/>
+      <c r="D249" s="59"/>
+      <c r="E249" s="59"/>
+      <c r="F249" s="59"/>
+      <c r="G249" s="59"/>
+      <c r="H249" s="59"/>
       <c r="I249" s="35"/>
       <c r="J249" s="16"/>
       <c r="K249" s="16"/>
@@ -12344,10 +12346,10 @@
     </row>
     <row r="250" ht="27" customHeight="1">
       <c r="A250" s="26" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C250" s="18">
         <f>SUM(D250:AC250)</f>
@@ -12381,11 +12383,11 @@
       <c r="AC250" s="13"/>
     </row>
     <row r="251" ht="27" customHeight="1">
-      <c r="A251" s="64" t="s">
-        <v>322</v>
-      </c>
-      <c r="B251" s="65" t="s">
-        <v>67</v>
+      <c r="A251" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="B251" s="66" t="s">
+        <v>69</v>
       </c>
       <c r="C251" s="22">
         <f>SUM(D251:AC251)</f>
@@ -12419,11 +12421,11 @@
       <c r="AC251" s="16"/>
     </row>
     <row r="252" ht="27" customHeight="1">
-      <c r="A252" s="63" t="s">
-        <v>323</v>
+      <c r="A252" s="65" t="s">
+        <v>325</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C252" s="12">
         <f>SUM(D252:AC252)</f>
@@ -12458,10 +12460,10 @@
     </row>
     <row r="253" ht="27" customHeight="1">
       <c r="A253" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C253" s="15">
         <f>SUM(D253:AC253)</f>
@@ -12496,10 +12498,10 @@
     </row>
     <row r="254" ht="27" customHeight="1">
       <c r="A254" s="46" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C254" s="12">
         <f>SUM(D254:AC254)</f>
@@ -12534,7 +12536,7 @@
     </row>
     <row r="255" ht="27" customHeight="1">
       <c r="A255" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B255" s="14" t="s">
         <v>30</v>
@@ -12571,11 +12573,11 @@
       <c r="AC255" s="16"/>
     </row>
     <row r="256" ht="27" customHeight="1">
-      <c r="A256" s="63" t="s">
-        <v>327</v>
+      <c r="A256" s="65" t="s">
+        <v>329</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C256" s="12">
         <f>SUM(D256:AC256)</f>
@@ -12610,10 +12612,10 @@
     </row>
     <row r="257" ht="27" customHeight="1">
       <c r="A257" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C257" s="15">
         <f>SUM(D257:AC257)</f>
@@ -12648,10 +12650,10 @@
     </row>
     <row r="258" ht="27" customHeight="1">
       <c r="A258" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C258" s="12">
         <f>SUM(D258:AC258)</f>
@@ -12685,11 +12687,11 @@
       <c r="AC258" s="13"/>
     </row>
     <row r="259" ht="27" customHeight="1">
-      <c r="A259" s="51" t="s">
-        <v>331</v>
+      <c r="A259" s="52" t="s">
+        <v>333</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C259" s="15">
         <f>SUM(D259:AC259)</f>
@@ -12723,11 +12725,11 @@
       <c r="AC259" s="16"/>
     </row>
     <row r="260" ht="27" customHeight="1">
-      <c r="A260" s="66" t="s">
-        <v>332</v>
+      <c r="A260" s="67" t="s">
+        <v>334</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C260" s="12">
         <f>SUM(D260:AC260)</f>
@@ -12761,11 +12763,11 @@
       <c r="AC260" s="13"/>
     </row>
     <row r="261" ht="27" customHeight="1">
-      <c r="A261" s="63" t="s">
-        <v>333</v>
+      <c r="A261" s="65" t="s">
+        <v>335</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C261" s="15">
         <f>SUM(D261:AC261)</f>
@@ -12799,11 +12801,11 @@
       <c r="AC261" s="16"/>
     </row>
     <row r="262" ht="27" customHeight="1">
-      <c r="A262" s="63" t="s">
-        <v>334</v>
+      <c r="A262" s="65" t="s">
+        <v>336</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C262" s="12">
         <f>SUM(D262:AC262)</f>
@@ -12838,10 +12840,10 @@
     </row>
     <row r="263" ht="27" customHeight="1">
       <c r="A263" s="29" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C263" s="15">
         <f>SUM(D263:AC263)</f>
@@ -12875,11 +12877,11 @@
       <c r="AC263" s="16"/>
     </row>
     <row r="264" ht="27" customHeight="1">
-      <c r="A264" s="63" t="s">
-        <v>336</v>
+      <c r="A264" s="65" t="s">
+        <v>338</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C264" s="12">
         <f>SUM(D264:AC264)</f>
@@ -12914,10 +12916,10 @@
     </row>
     <row r="265" ht="27" customHeight="1">
       <c r="A265" s="29" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C265" s="15">
         <f>SUM(D265:AC265)</f>
@@ -12952,10 +12954,10 @@
     </row>
     <row r="266" ht="27" customHeight="1">
       <c r="A266" s="46" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C266" s="12">
         <f>SUM(D266:AC266)</f>
@@ -12990,10 +12992,10 @@
     </row>
     <row r="267" ht="27" customHeight="1">
       <c r="A267" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C267" s="15">
         <f>SUM(D267:AC267)</f>
@@ -13028,10 +13030,10 @@
     </row>
     <row r="268" ht="27" customHeight="1">
       <c r="A268" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C268" s="12">
         <f>SUM(D268:AC268)</f>
@@ -13066,10 +13068,10 @@
     </row>
     <row r="269" ht="27" customHeight="1">
       <c r="A269" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C269" s="15">
         <f>SUM(D269:AC269)</f>
@@ -13103,11 +13105,11 @@
       <c r="AC269" s="16"/>
     </row>
     <row r="270" ht="27" customHeight="1">
-      <c r="A270" s="51" t="s">
-        <v>342</v>
+      <c r="A270" s="52" t="s">
+        <v>344</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C270" s="12">
         <f>SUM(D270:AC270)</f>
@@ -13142,10 +13144,10 @@
     </row>
     <row r="271" ht="27" customHeight="1">
       <c r="A271" s="25" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C271" s="15">
         <f>SUM(D271:AC271)</f>
@@ -13180,10 +13182,10 @@
     </row>
     <row r="272" ht="30.05" customHeight="1">
       <c r="A272" s="30" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C272" s="12">
         <f>SUM(D272:AC272)</f>
@@ -13218,10 +13220,10 @@
     </row>
     <row r="273" ht="27" customHeight="1">
       <c r="A273" s="29" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C273" s="15">
         <f>SUM(D273:AC273)</f>
@@ -13256,10 +13258,10 @@
     </row>
     <row r="274" ht="27" customHeight="1">
       <c r="A274" s="29" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C274" s="12">
         <f>SUM(D274:AC274)</f>
@@ -13293,11 +13295,11 @@
       <c r="AC274" s="13"/>
     </row>
     <row r="275" ht="27" customHeight="1">
-      <c r="A275" s="63" t="s">
-        <v>348</v>
+      <c r="A275" s="65" t="s">
+        <v>350</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C275" s="15">
         <f>SUM(D275:AC275)</f>
@@ -13331,151 +13333,151 @@
       <c r="AC275" s="16"/>
     </row>
     <row r="276" ht="58.55" customHeight="1">
-      <c r="A276" s="67" t="s">
-        <v>349</v>
-      </c>
-      <c r="B276" s="68"/>
+      <c r="A276" s="68" t="s">
+        <v>351</v>
+      </c>
+      <c r="B276" s="69"/>
       <c r="C276" s="12">
         <f>SUM(D276:AC276)</f>
         <v>0</v>
       </c>
-      <c r="D276" s="69">
+      <c r="D276" s="70">
         <f>SUM(D2:D275)</f>
         <v>0</v>
       </c>
-      <c r="E276" s="69">
+      <c r="E276" s="70">
         <f>SUM(E2:E275)</f>
         <v>0</v>
       </c>
-      <c r="F276" s="69">
+      <c r="F276" s="70">
         <f>SUM(F2:F275)</f>
         <v>0</v>
       </c>
-      <c r="G276" s="70">
+      <c r="G276" s="71">
         <f>SUM(G2:G275)</f>
         <v>0</v>
       </c>
-      <c r="H276" s="71">
+      <c r="H276" s="72">
         <f>SUM(H2:H275)</f>
         <v>0</v>
       </c>
-      <c r="I276" s="72">
+      <c r="I276" s="73">
         <f>SUM(I2:I275)</f>
         <v>0</v>
       </c>
-      <c r="J276" s="69">
+      <c r="J276" s="70">
         <f>SUM(J2:J275)</f>
         <v>0</v>
       </c>
-      <c r="K276" s="69">
+      <c r="K276" s="70">
         <f>SUM(K2:K275)</f>
         <v>0</v>
       </c>
-      <c r="L276" s="69">
+      <c r="L276" s="70">
         <f>SUM(L2:L275)</f>
         <v>0</v>
       </c>
-      <c r="M276" s="69">
+      <c r="M276" s="70">
         <f>SUM(M2:M275)</f>
         <v>0</v>
       </c>
-      <c r="N276" s="69">
+      <c r="N276" s="70">
         <f>SUM(N2:N275)</f>
         <v>0</v>
       </c>
-      <c r="O276" s="69">
+      <c r="O276" s="70">
         <f>SUM(O2:O275)</f>
         <v>0</v>
       </c>
-      <c r="P276" s="69">
+      <c r="P276" s="70">
         <f>SUM(P2:P275)</f>
         <v>0</v>
       </c>
-      <c r="Q276" s="69">
+      <c r="Q276" s="70">
         <f>SUM(Q2:Q275)</f>
         <v>0</v>
       </c>
-      <c r="R276" s="69">
+      <c r="R276" s="70">
         <f>SUM(R2:R275)</f>
         <v>0</v>
       </c>
-      <c r="S276" s="69">
+      <c r="S276" s="70">
         <f>SUM(S2:S275)</f>
         <v>0</v>
       </c>
-      <c r="T276" s="69">
+      <c r="T276" s="70">
         <f>SUM(T2:T275)</f>
         <v>0</v>
       </c>
-      <c r="U276" s="69">
+      <c r="U276" s="70">
         <f>SUM(U2:U275)</f>
         <v>0</v>
       </c>
-      <c r="V276" s="69">
+      <c r="V276" s="70">
         <f>SUM(V2:V275)</f>
         <v>0</v>
       </c>
-      <c r="W276" s="69">
+      <c r="W276" s="70">
         <f>SUM(W2:W275)</f>
         <v>0</v>
       </c>
-      <c r="X276" s="69">
+      <c r="X276" s="70">
         <f>SUM(X2:X275)</f>
         <v>0</v>
       </c>
-      <c r="Y276" s="69">
+      <c r="Y276" s="70">
         <f>SUM(Y2:Y275)</f>
         <v>0</v>
       </c>
-      <c r="Z276" s="69">
+      <c r="Z276" s="70">
         <f>SUM(Z2:Z275)</f>
         <v>0</v>
       </c>
-      <c r="AA276" s="69">
+      <c r="AA276" s="70">
         <f>SUM(AA2:AA275)</f>
         <v>0</v>
       </c>
-      <c r="AB276" s="69">
+      <c r="AB276" s="70">
         <f>SUM(AB2:AB275)</f>
         <v>0</v>
       </c>
-      <c r="AC276" s="69">
+      <c r="AC276" s="70">
         <f>SUM(AC2:AC275)</f>
         <v>0</v>
       </c>
     </row>
     <row r="277" ht="58.55" customHeight="1">
-      <c r="A277" s="73" t="s">
-        <v>350</v>
-      </c>
-      <c r="B277" s="74"/>
-      <c r="C277" s="75"/>
-      <c r="D277" s="76"/>
-      <c r="E277" s="77"/>
-      <c r="F277" s="78"/>
-      <c r="G277" s="79"/>
-      <c r="H277" s="80"/>
-      <c r="I277" s="81"/>
-      <c r="J277" s="82"/>
-      <c r="K277" s="83"/>
-      <c r="L277" s="83"/>
-      <c r="M277" s="83"/>
-      <c r="N277" s="83"/>
-      <c r="O277" s="83"/>
-      <c r="P277" s="83"/>
-      <c r="Q277" s="83"/>
-      <c r="R277" s="83"/>
-      <c r="S277" s="83"/>
-      <c r="T277" s="83"/>
-      <c r="U277" s="83"/>
-      <c r="V277" s="83"/>
-      <c r="W277" s="83"/>
-      <c r="X277" s="83"/>
-      <c r="Y277" s="83"/>
-      <c r="Z277" s="83"/>
-      <c r="AA277" s="83"/>
-      <c r="AB277" s="83"/>
-      <c r="AC277" s="77"/>
+      <c r="A277" s="74" t="s">
+        <v>352</v>
+      </c>
+      <c r="B277" s="75"/>
+      <c r="C277" s="76"/>
+      <c r="D277" s="77"/>
+      <c r="E277" s="78"/>
+      <c r="F277" s="79"/>
+      <c r="G277" s="80"/>
+      <c r="H277" s="81"/>
+      <c r="I277" s="82"/>
+      <c r="J277" s="83"/>
+      <c r="K277" s="84"/>
+      <c r="L277" s="84"/>
+      <c r="M277" s="84"/>
+      <c r="N277" s="84"/>
+      <c r="O277" s="84"/>
+      <c r="P277" s="84"/>
+      <c r="Q277" s="84"/>
+      <c r="R277" s="84"/>
+      <c r="S277" s="84"/>
+      <c r="T277" s="84"/>
+      <c r="U277" s="84"/>
+      <c r="V277" s="84"/>
+      <c r="W277" s="84"/>
+      <c r="X277" s="84"/>
+      <c r="Y277" s="84"/>
+      <c r="Z277" s="84"/>
+      <c r="AA277" s="84"/>
+      <c r="AB277" s="84"/>
+      <c r="AC277" s="78"/>
     </row>
   </sheetData>
   <mergeCells>
